--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2024.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2024.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2017"/>
+  <dimension ref="A1:C2113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15193,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="C1346">
-        <v>5590</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15215,7 +15215,7 @@
         <v>3</v>
       </c>
       <c r="C1348">
-        <v>5490</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="1349" spans="1:3">
@@ -15226,7 +15226,7 @@
         <v>4</v>
       </c>
       <c r="C1349">
-        <v>5410</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
@@ -15237,7 +15237,7 @@
         <v>5</v>
       </c>
       <c r="C1350">
-        <v>5340</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
@@ -15248,7 +15248,7 @@
         <v>6</v>
       </c>
       <c r="C1351">
-        <v>5290</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="1352" spans="1:3">
@@ -15259,7 +15259,7 @@
         <v>7</v>
       </c>
       <c r="C1352">
-        <v>5240</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
@@ -15270,7 +15270,7 @@
         <v>8</v>
       </c>
       <c r="C1353">
-        <v>5200</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
@@ -15281,7 +15281,7 @@
         <v>9</v>
       </c>
       <c r="C1354">
-        <v>5160</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
@@ -15292,7 +15292,7 @@
         <v>10</v>
       </c>
       <c r="C1355">
-        <v>5140</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="1356" spans="1:3">
@@ -15303,7 +15303,7 @@
         <v>11</v>
       </c>
       <c r="C1356">
-        <v>5120</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="1357" spans="1:3">
@@ -15314,7 +15314,7 @@
         <v>12</v>
       </c>
       <c r="C1357">
-        <v>5120</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="1358" spans="1:3">
@@ -15336,7 +15336,7 @@
         <v>14</v>
       </c>
       <c r="C1359">
-        <v>5120</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
@@ -15347,7 +15347,7 @@
         <v>15</v>
       </c>
       <c r="C1360">
-        <v>5120</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
@@ -15369,7 +15369,7 @@
         <v>17</v>
       </c>
       <c r="C1362">
-        <v>5110</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
@@ -15380,7 +15380,7 @@
         <v>18</v>
       </c>
       <c r="C1363">
-        <v>5100</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
@@ -15391,7 +15391,7 @@
         <v>19</v>
       </c>
       <c r="C1364">
-        <v>5120</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
@@ -15402,7 +15402,7 @@
         <v>20</v>
       </c>
       <c r="C1365">
-        <v>5140</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15413,7 +15413,7 @@
         <v>21</v>
       </c>
       <c r="C1366">
-        <v>5170</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
@@ -15435,7 +15435,7 @@
         <v>23</v>
       </c>
       <c r="C1368">
-        <v>5280</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -15446,7 +15446,7 @@
         <v>24</v>
       </c>
       <c r="C1369">
-        <v>5360</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -15457,7 +15457,7 @@
         <v>25</v>
       </c>
       <c r="C1370">
-        <v>5450</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
@@ -15468,7 +15468,7 @@
         <v>26</v>
       </c>
       <c r="C1371">
-        <v>5550</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -15479,7 +15479,7 @@
         <v>27</v>
       </c>
       <c r="C1372">
-        <v>5660</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15490,7 +15490,7 @@
         <v>28</v>
       </c>
       <c r="C1373">
-        <v>5760</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15501,7 +15501,7 @@
         <v>29</v>
       </c>
       <c r="C1374">
-        <v>5870</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
@@ -15512,7 +15512,7 @@
         <v>30</v>
       </c>
       <c r="C1375">
-        <v>5960</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
@@ -15523,7 +15523,7 @@
         <v>31</v>
       </c>
       <c r="C1376">
-        <v>6050</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
@@ -15534,7 +15534,7 @@
         <v>32</v>
       </c>
       <c r="C1377">
-        <v>6120</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
@@ -15545,7 +15545,7 @@
         <v>33</v>
       </c>
       <c r="C1378">
-        <v>6170</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
@@ -15556,7 +15556,7 @@
         <v>34</v>
       </c>
       <c r="C1379">
-        <v>6190</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="1380" spans="1:3">
@@ -15567,7 +15567,7 @@
         <v>35</v>
       </c>
       <c r="C1380">
-        <v>6200</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
@@ -15578,7 +15578,7 @@
         <v>36</v>
       </c>
       <c r="C1381">
-        <v>6190</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
@@ -15589,7 +15589,7 @@
         <v>37</v>
       </c>
       <c r="C1382">
-        <v>6190</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
@@ -15600,7 +15600,7 @@
         <v>38</v>
       </c>
       <c r="C1383">
-        <v>6130</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="1384" spans="1:3">
@@ -15611,7 +15611,7 @@
         <v>39</v>
       </c>
       <c r="C1384">
-        <v>6060</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
@@ -15622,7 +15622,7 @@
         <v>40</v>
       </c>
       <c r="C1385">
-        <v>5980</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -15633,7 +15633,7 @@
         <v>41</v>
       </c>
       <c r="C1386">
-        <v>5890</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
@@ -15644,7 +15644,7 @@
         <v>42</v>
       </c>
       <c r="C1387">
-        <v>5810</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
@@ -15655,7 +15655,7 @@
         <v>43</v>
       </c>
       <c r="C1388">
-        <v>5720</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="1389" spans="1:3">
@@ -15666,7 +15666,7 @@
         <v>44</v>
       </c>
       <c r="C1389">
-        <v>5640</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
@@ -15677,7 +15677,7 @@
         <v>45</v>
       </c>
       <c r="C1390">
-        <v>5580</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
@@ -15688,7 +15688,7 @@
         <v>46</v>
       </c>
       <c r="C1391">
-        <v>5520</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -15699,7 +15699,7 @@
         <v>47</v>
       </c>
       <c r="C1392">
-        <v>5480</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="1393" spans="1:3">
@@ -15710,7 +15710,7 @@
         <v>48</v>
       </c>
       <c r="C1393">
-        <v>5450</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
@@ -15721,7 +15721,7 @@
         <v>49</v>
       </c>
       <c r="C1394">
-        <v>5430</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
@@ -15732,7 +15732,7 @@
         <v>50</v>
       </c>
       <c r="C1395">
-        <v>5420</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
@@ -15743,7 +15743,7 @@
         <v>51</v>
       </c>
       <c r="C1396">
-        <v>5420</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="1397" spans="1:3">
@@ -15754,7 +15754,7 @@
         <v>52</v>
       </c>
       <c r="C1397">
-        <v>5410</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -15765,7 +15765,7 @@
         <v>53</v>
       </c>
       <c r="C1398">
-        <v>5420</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15776,7 +15776,7 @@
         <v>54</v>
       </c>
       <c r="C1399">
-        <v>5420</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
@@ -15787,7 +15787,7 @@
         <v>55</v>
       </c>
       <c r="C1400">
-        <v>5420</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
@@ -15798,7 +15798,7 @@
         <v>56</v>
       </c>
       <c r="C1401">
-        <v>5430</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
@@ -15809,7 +15809,7 @@
         <v>57</v>
       </c>
       <c r="C1402">
-        <v>5430</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="1403" spans="1:3">
@@ -15820,7 +15820,7 @@
         <v>58</v>
       </c>
       <c r="C1403">
-        <v>5430</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
@@ -15831,7 +15831,7 @@
         <v>59</v>
       </c>
       <c r="C1404">
-        <v>5430</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="1405" spans="1:3">
@@ -15842,7 +15842,7 @@
         <v>60</v>
       </c>
       <c r="C1405">
-        <v>5420</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="1406" spans="1:3">
@@ -15853,7 +15853,7 @@
         <v>61</v>
       </c>
       <c r="C1406">
-        <v>5420</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="1407" spans="1:3">
@@ -15864,7 +15864,7 @@
         <v>62</v>
       </c>
       <c r="C1407">
-        <v>5420</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="1408" spans="1:3">
@@ -15875,7 +15875,7 @@
         <v>63</v>
       </c>
       <c r="C1408">
-        <v>5430</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="1409" spans="1:3">
@@ -15886,7 +15886,7 @@
         <v>64</v>
       </c>
       <c r="C1409">
-        <v>5450</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="1410" spans="1:3">
@@ -15897,7 +15897,7 @@
         <v>65</v>
       </c>
       <c r="C1410">
-        <v>5480</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="1411" spans="1:3">
@@ -15908,7 +15908,7 @@
         <v>66</v>
       </c>
       <c r="C1411">
-        <v>5520</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="1412" spans="1:3">
@@ -15919,7 +15919,7 @@
         <v>67</v>
       </c>
       <c r="C1412">
-        <v>5580</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="1413" spans="1:3">
@@ -15930,7 +15930,7 @@
         <v>68</v>
       </c>
       <c r="C1413">
-        <v>5640</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="1414" spans="1:3">
@@ -15941,7 +15941,7 @@
         <v>69</v>
       </c>
       <c r="C1414">
-        <v>5700</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="1415" spans="1:3">
@@ -15952,7 +15952,7 @@
         <v>70</v>
       </c>
       <c r="C1415">
-        <v>5770</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="1416" spans="1:3">
@@ -15963,7 +15963,7 @@
         <v>71</v>
       </c>
       <c r="C1416">
-        <v>5820</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="1417" spans="1:3">
@@ -15974,7 +15974,7 @@
         <v>72</v>
       </c>
       <c r="C1417">
-        <v>5880</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="1418" spans="1:3">
@@ -15985,7 +15985,7 @@
         <v>73</v>
       </c>
       <c r="C1418">
-        <v>5940</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="1419" spans="1:3">
@@ -15996,7 +15996,7 @@
         <v>74</v>
       </c>
       <c r="C1419">
-        <v>6010</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="1420" spans="1:3">
@@ -16007,7 +16007,7 @@
         <v>75</v>
       </c>
       <c r="C1420">
-        <v>6090</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="1421" spans="1:3">
@@ -16018,7 +16018,7 @@
         <v>76</v>
       </c>
       <c r="C1421">
-        <v>6190</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="1422" spans="1:3">
@@ -16029,7 +16029,7 @@
         <v>77</v>
       </c>
       <c r="C1422">
-        <v>6310</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="1423" spans="1:3">
@@ -16040,7 +16040,7 @@
         <v>78</v>
       </c>
       <c r="C1423">
-        <v>6420</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="1424" spans="1:3">
@@ -16051,7 +16051,7 @@
         <v>79</v>
       </c>
       <c r="C1424">
-        <v>6520</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1425" spans="1:3">
@@ -16062,7 +16062,7 @@
         <v>80</v>
       </c>
       <c r="C1425">
-        <v>6610</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="1426" spans="1:3">
@@ -16106,7 +16106,7 @@
         <v>84</v>
       </c>
       <c r="C1429">
-        <v>7030</v>
+        <v>7040</v>
       </c>
     </row>
     <row r="1430" spans="1:3">
@@ -16117,7 +16117,7 @@
         <v>85</v>
       </c>
       <c r="C1430">
-        <v>7090</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="1431" spans="1:3">
@@ -16128,7 +16128,7 @@
         <v>86</v>
       </c>
       <c r="C1431">
-        <v>7100</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="1432" spans="1:3">
@@ -16139,7 +16139,7 @@
         <v>87</v>
       </c>
       <c r="C1432">
-        <v>7090</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
@@ -16150,7 +16150,7 @@
         <v>88</v>
       </c>
       <c r="C1433">
-        <v>7010</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="1434" spans="1:3">
@@ -16161,7 +16161,7 @@
         <v>89</v>
       </c>
       <c r="C1434">
-        <v>6870</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="1435" spans="1:3">
@@ -16172,7 +16172,7 @@
         <v>90</v>
       </c>
       <c r="C1435">
-        <v>6770</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="1436" spans="1:3">
@@ -16183,7 +16183,7 @@
         <v>91</v>
       </c>
       <c r="C1436">
-        <v>6630</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
@@ -16194,7 +16194,7 @@
         <v>92</v>
       </c>
       <c r="C1437">
-        <v>6480</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="1438" spans="1:3">
@@ -16205,7 +16205,7 @@
         <v>93</v>
       </c>
       <c r="C1438">
-        <v>6270</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1439" spans="1:3">
@@ -16216,7 +16216,7 @@
         <v>94</v>
       </c>
       <c r="C1439">
-        <v>6110</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="1440" spans="1:3">
@@ -16227,7 +16227,7 @@
         <v>95</v>
       </c>
       <c r="C1440">
-        <v>6020</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="1441" spans="1:3">
@@ -16238,7 +16238,7 @@
         <v>96</v>
       </c>
       <c r="C1441">
-        <v>5910</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="1442" spans="1:3">
@@ -16249,7 +16249,7 @@
         <v>1</v>
       </c>
       <c r="C1442">
-        <v>5490</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="1443" spans="1:3">
@@ -16260,7 +16260,7 @@
         <v>2</v>
       </c>
       <c r="C1443">
-        <v>5450</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="1444" spans="1:3">
@@ -16271,7 +16271,7 @@
         <v>3</v>
       </c>
       <c r="C1444">
-        <v>5390</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="1445" spans="1:3">
@@ -16282,7 +16282,7 @@
         <v>4</v>
       </c>
       <c r="C1445">
-        <v>5310</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="1446" spans="1:3">
@@ -16293,7 +16293,7 @@
         <v>5</v>
       </c>
       <c r="C1446">
-        <v>5250</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="1447" spans="1:3">
@@ -16304,7 +16304,7 @@
         <v>6</v>
       </c>
       <c r="C1447">
-        <v>5190</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="1448" spans="1:3">
@@ -16315,7 +16315,7 @@
         <v>7</v>
       </c>
       <c r="C1448">
-        <v>5140</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="1449" spans="1:3">
@@ -16326,7 +16326,7 @@
         <v>8</v>
       </c>
       <c r="C1449">
-        <v>5090</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="1450" spans="1:3">
@@ -16337,7 +16337,7 @@
         <v>9</v>
       </c>
       <c r="C1450">
-        <v>5050</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="1451" spans="1:3">
@@ -16348,7 +16348,7 @@
         <v>10</v>
       </c>
       <c r="C1451">
-        <v>5020</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="1452" spans="1:3">
@@ -16359,7 +16359,7 @@
         <v>11</v>
       </c>
       <c r="C1452">
-        <v>4990</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="1453" spans="1:3">
@@ -16370,7 +16370,7 @@
         <v>12</v>
       </c>
       <c r="C1453">
-        <v>4980</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="1454" spans="1:3">
@@ -16381,7 +16381,7 @@
         <v>13</v>
       </c>
       <c r="C1454">
-        <v>4970</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="1455" spans="1:3">
@@ -16392,7 +16392,7 @@
         <v>14</v>
       </c>
       <c r="C1455">
-        <v>4970</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="1456" spans="1:3">
@@ -16403,7 +16403,7 @@
         <v>15</v>
       </c>
       <c r="C1456">
-        <v>4960</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="1457" spans="1:3">
@@ -16414,7 +16414,7 @@
         <v>16</v>
       </c>
       <c r="C1457">
-        <v>4960</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="1458" spans="1:3">
@@ -16425,7 +16425,7 @@
         <v>17</v>
       </c>
       <c r="C1458">
-        <v>4960</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="1459" spans="1:3">
@@ -16436,7 +16436,7 @@
         <v>18</v>
       </c>
       <c r="C1459">
-        <v>4970</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="1460" spans="1:3">
@@ -16447,7 +16447,7 @@
         <v>19</v>
       </c>
       <c r="C1460">
-        <v>4990</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="1461" spans="1:3">
@@ -16458,7 +16458,7 @@
         <v>20</v>
       </c>
       <c r="C1461">
-        <v>5020</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="1462" spans="1:3">
@@ -16469,7 +16469,7 @@
         <v>21</v>
       </c>
       <c r="C1462">
-        <v>5060</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="1463" spans="1:3">
@@ -16480,7 +16480,7 @@
         <v>22</v>
       </c>
       <c r="C1463">
-        <v>5120</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="1464" spans="1:3">
@@ -16491,7 +16491,7 @@
         <v>23</v>
       </c>
       <c r="C1464">
-        <v>5200</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="1465" spans="1:3">
@@ -16502,7 +16502,7 @@
         <v>24</v>
       </c>
       <c r="C1465">
-        <v>5290</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="1466" spans="1:3">
@@ -16513,7 +16513,7 @@
         <v>25</v>
       </c>
       <c r="C1466">
-        <v>5400</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="1467" spans="1:3">
@@ -16524,7 +16524,7 @@
         <v>26</v>
       </c>
       <c r="C1467">
-        <v>5510</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="1468" spans="1:3">
@@ -16535,7 +16535,7 @@
         <v>27</v>
       </c>
       <c r="C1468">
-        <v>5630</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="1469" spans="1:3">
@@ -16546,7 +16546,7 @@
         <v>28</v>
       </c>
       <c r="C1469">
-        <v>5740</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="1470" spans="1:3">
@@ -16557,7 +16557,7 @@
         <v>29</v>
       </c>
       <c r="C1470">
-        <v>5850</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="1471" spans="1:3">
@@ -16568,7 +16568,7 @@
         <v>30</v>
       </c>
       <c r="C1471">
-        <v>5940</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="1472" spans="1:3">
@@ -16579,7 +16579,7 @@
         <v>31</v>
       </c>
       <c r="C1472">
-        <v>6020</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="1473" spans="1:3">
@@ -16590,7 +16590,7 @@
         <v>32</v>
       </c>
       <c r="C1473">
-        <v>6080</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="1474" spans="1:3">
@@ -16601,7 +16601,7 @@
         <v>33</v>
       </c>
       <c r="C1474">
-        <v>6120</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="1475" spans="1:3">
@@ -16612,7 +16612,7 @@
         <v>34</v>
       </c>
       <c r="C1475">
-        <v>6140</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="1476" spans="1:3">
@@ -16623,7 +16623,7 @@
         <v>35</v>
       </c>
       <c r="C1476">
-        <v>6130</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="1477" spans="1:3">
@@ -16634,7 +16634,7 @@
         <v>36</v>
       </c>
       <c r="C1477">
-        <v>6120</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="1478" spans="1:3">
@@ -16645,7 +16645,7 @@
         <v>37</v>
       </c>
       <c r="C1478">
-        <v>6080</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="1479" spans="1:3">
@@ -16656,7 +16656,7 @@
         <v>38</v>
       </c>
       <c r="C1479">
-        <v>6040</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1480" spans="1:3">
@@ -16667,7 +16667,7 @@
         <v>39</v>
       </c>
       <c r="C1480">
-        <v>6000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1481" spans="1:3">
@@ -16678,7 +16678,7 @@
         <v>40</v>
       </c>
       <c r="C1481">
-        <v>5950</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="1482" spans="1:3">
@@ -16689,7 +16689,7 @@
         <v>41</v>
       </c>
       <c r="C1482">
-        <v>5910</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="1483" spans="1:3">
@@ -16700,7 +16700,7 @@
         <v>42</v>
       </c>
       <c r="C1483">
-        <v>5870</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="1484" spans="1:3">
@@ -16711,7 +16711,7 @@
         <v>43</v>
       </c>
       <c r="C1484">
-        <v>5830</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="1485" spans="1:3">
@@ -16722,7 +16722,7 @@
         <v>44</v>
       </c>
       <c r="C1485">
-        <v>5800</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="1486" spans="1:3">
@@ -16733,7 +16733,7 @@
         <v>45</v>
       </c>
       <c r="C1486">
-        <v>5780</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="1487" spans="1:3">
@@ -16744,7 +16744,7 @@
         <v>46</v>
       </c>
       <c r="C1487">
-        <v>5760</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="1488" spans="1:3">
@@ -16755,7 +16755,7 @@
         <v>47</v>
       </c>
       <c r="C1488">
-        <v>5740</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="1489" spans="1:3">
@@ -16766,7 +16766,7 @@
         <v>48</v>
       </c>
       <c r="C1489">
-        <v>5720</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="1490" spans="1:3">
@@ -16777,7 +16777,7 @@
         <v>49</v>
       </c>
       <c r="C1490">
-        <v>5710</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="1491" spans="1:3">
@@ -16788,7 +16788,7 @@
         <v>50</v>
       </c>
       <c r="C1491">
-        <v>5690</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="1492" spans="1:3">
@@ -16799,7 +16799,7 @@
         <v>51</v>
       </c>
       <c r="C1492">
-        <v>5680</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="1493" spans="1:3">
@@ -16810,7 +16810,7 @@
         <v>52</v>
       </c>
       <c r="C1493">
-        <v>5670</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="1494" spans="1:3">
@@ -16821,7 +16821,7 @@
         <v>53</v>
       </c>
       <c r="C1494">
-        <v>5650</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1495" spans="1:3">
@@ -16832,7 +16832,7 @@
         <v>54</v>
       </c>
       <c r="C1495">
-        <v>5650</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="1496" spans="1:3">
@@ -16843,7 +16843,7 @@
         <v>55</v>
       </c>
       <c r="C1496">
-        <v>5640</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="1497" spans="1:3">
@@ -16854,7 +16854,7 @@
         <v>56</v>
       </c>
       <c r="C1497">
-        <v>5640</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="1498" spans="1:3">
@@ -16865,7 +16865,7 @@
         <v>57</v>
       </c>
       <c r="C1498">
-        <v>5630</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="1499" spans="1:3">
@@ -16876,7 +16876,7 @@
         <v>58</v>
       </c>
       <c r="C1499">
-        <v>5630</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="1500" spans="1:3">
@@ -16887,7 +16887,7 @@
         <v>59</v>
       </c>
       <c r="C1500">
-        <v>5620</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="1501" spans="1:3">
@@ -16898,7 +16898,7 @@
         <v>60</v>
       </c>
       <c r="C1501">
-        <v>5600</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="1502" spans="1:3">
@@ -16909,7 +16909,7 @@
         <v>61</v>
       </c>
       <c r="C1502">
-        <v>5590</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="1503" spans="1:3">
@@ -16920,7 +16920,7 @@
         <v>62</v>
       </c>
       <c r="C1503">
-        <v>5570</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="1504" spans="1:3">
@@ -16931,7 +16931,7 @@
         <v>63</v>
       </c>
       <c r="C1504">
-        <v>5560</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="1505" spans="1:3">
@@ -16942,7 +16942,7 @@
         <v>64</v>
       </c>
       <c r="C1505">
-        <v>5550</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="1506" spans="1:3">
@@ -16953,7 +16953,7 @@
         <v>65</v>
       </c>
       <c r="C1506">
-        <v>5560</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="1507" spans="1:3">
@@ -16964,7 +16964,7 @@
         <v>66</v>
       </c>
       <c r="C1507">
-        <v>5580</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
@@ -16975,7 +16975,7 @@
         <v>67</v>
       </c>
       <c r="C1508">
-        <v>5610</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="1509" spans="1:3">
@@ -16986,7 +16986,7 @@
         <v>68</v>
       </c>
       <c r="C1509">
-        <v>5660</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="1510" spans="1:3">
@@ -16997,7 +16997,7 @@
         <v>69</v>
       </c>
       <c r="C1510">
-        <v>5710</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="1511" spans="1:3">
@@ -17008,7 +17008,7 @@
         <v>70</v>
       </c>
       <c r="C1511">
-        <v>5760</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="1512" spans="1:3">
@@ -17019,7 +17019,7 @@
         <v>71</v>
       </c>
       <c r="C1512">
-        <v>5800</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="1513" spans="1:3">
@@ -17030,7 +17030,7 @@
         <v>72</v>
       </c>
       <c r="C1513">
-        <v>5840</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="1514" spans="1:3">
@@ -17041,7 +17041,7 @@
         <v>73</v>
       </c>
       <c r="C1514">
-        <v>5870</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="1515" spans="1:3">
@@ -17052,7 +17052,7 @@
         <v>74</v>
       </c>
       <c r="C1515">
-        <v>5910</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="1516" spans="1:3">
@@ -17063,7 +17063,7 @@
         <v>75</v>
       </c>
       <c r="C1516">
-        <v>5960</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="1517" spans="1:3">
@@ -17074,7 +17074,7 @@
         <v>76</v>
       </c>
       <c r="C1517">
-        <v>6030</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="1518" spans="1:3">
@@ -17085,7 +17085,7 @@
         <v>77</v>
       </c>
       <c r="C1518">
-        <v>6130</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="1519" spans="1:3">
@@ -17096,7 +17096,7 @@
         <v>78</v>
       </c>
       <c r="C1519">
-        <v>6240</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="1520" spans="1:3">
@@ -17107,7 +17107,7 @@
         <v>79</v>
       </c>
       <c r="C1520">
-        <v>6350</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="1521" spans="1:3">
@@ -17118,7 +17118,7 @@
         <v>80</v>
       </c>
       <c r="C1521">
-        <v>6460</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="1522" spans="1:3">
@@ -17129,7 +17129,7 @@
         <v>81</v>
       </c>
       <c r="C1522">
-        <v>6590</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
@@ -17140,7 +17140,7 @@
         <v>82</v>
       </c>
       <c r="C1523">
-        <v>6710</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="1524" spans="1:3">
@@ -17151,7 +17151,7 @@
         <v>83</v>
       </c>
       <c r="C1524">
-        <v>6790</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="1525" spans="1:3">
@@ -17162,7 +17162,7 @@
         <v>84</v>
       </c>
       <c r="C1525">
-        <v>6870</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="1526" spans="1:3">
@@ -17173,7 +17173,7 @@
         <v>85</v>
       </c>
       <c r="C1526">
-        <v>6860</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="1527" spans="1:3">
@@ -17184,7 +17184,7 @@
         <v>86</v>
       </c>
       <c r="C1527">
-        <v>6800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="1528" spans="1:3">
@@ -17195,7 +17195,7 @@
         <v>87</v>
       </c>
       <c r="C1528">
-        <v>6770</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="1529" spans="1:3">
@@ -17206,7 +17206,7 @@
         <v>88</v>
       </c>
       <c r="C1529">
-        <v>6690</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
@@ -17217,7 +17217,7 @@
         <v>89</v>
       </c>
       <c r="C1530">
-        <v>6580</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="1531" spans="1:3">
@@ -17228,7 +17228,7 @@
         <v>90</v>
       </c>
       <c r="C1531">
-        <v>6490</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
@@ -17239,7 +17239,7 @@
         <v>91</v>
       </c>
       <c r="C1532">
-        <v>6330</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="1533" spans="1:3">
@@ -17250,7 +17250,7 @@
         <v>92</v>
       </c>
       <c r="C1533">
-        <v>6160</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="1534" spans="1:3">
@@ -17261,7 +17261,7 @@
         <v>93</v>
       </c>
       <c r="C1534">
-        <v>5950</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="1535" spans="1:3">
@@ -17272,7 +17272,7 @@
         <v>94</v>
       </c>
       <c r="C1535">
-        <v>5760</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
@@ -17283,7 +17283,7 @@
         <v>95</v>
       </c>
       <c r="C1536">
-        <v>5680</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="1537" spans="1:3">
@@ -17294,7 +17294,7 @@
         <v>96</v>
       </c>
       <c r="C1537">
-        <v>5520</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="1538" spans="1:3">
@@ -22575,6 +22575,1062 @@
       </c>
       <c r="C2017">
         <v>5400</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:3">
+      <c r="A2018" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2018">
+        <v>1</v>
+      </c>
+      <c r="C2018">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:3">
+      <c r="A2019" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2019">
+        <v>2</v>
+      </c>
+      <c r="C2019">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:3">
+      <c r="A2020" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2020">
+        <v>3</v>
+      </c>
+      <c r="C2020">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:3">
+      <c r="A2021" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2021">
+        <v>4</v>
+      </c>
+      <c r="C2021">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:3">
+      <c r="A2022" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2022">
+        <v>5</v>
+      </c>
+      <c r="C2022">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:3">
+      <c r="A2023" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2023">
+        <v>6</v>
+      </c>
+      <c r="C2023">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:3">
+      <c r="A2024" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2024">
+        <v>7</v>
+      </c>
+      <c r="C2024">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:3">
+      <c r="A2025" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2025">
+        <v>8</v>
+      </c>
+      <c r="C2025">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:3">
+      <c r="A2026" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2026">
+        <v>9</v>
+      </c>
+      <c r="C2026">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:3">
+      <c r="A2027" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2027">
+        <v>10</v>
+      </c>
+      <c r="C2027">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:3">
+      <c r="A2028" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2028">
+        <v>11</v>
+      </c>
+      <c r="C2028">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:3">
+      <c r="A2029" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2029">
+        <v>12</v>
+      </c>
+      <c r="C2029">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:3">
+      <c r="A2030" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2030">
+        <v>13</v>
+      </c>
+      <c r="C2030">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:3">
+      <c r="A2031" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2031">
+        <v>14</v>
+      </c>
+      <c r="C2031">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:3">
+      <c r="A2032" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2032">
+        <v>15</v>
+      </c>
+      <c r="C2032">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:3">
+      <c r="A2033" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2033">
+        <v>16</v>
+      </c>
+      <c r="C2033">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:3">
+      <c r="A2034" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2034">
+        <v>17</v>
+      </c>
+      <c r="C2034">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:3">
+      <c r="A2035" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2035">
+        <v>18</v>
+      </c>
+      <c r="C2035">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:3">
+      <c r="A2036" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2036">
+        <v>19</v>
+      </c>
+      <c r="C2036">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:3">
+      <c r="A2037" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2037">
+        <v>20</v>
+      </c>
+      <c r="C2037">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:3">
+      <c r="A2038" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2038">
+        <v>21</v>
+      </c>
+      <c r="C2038">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:3">
+      <c r="A2039" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2039">
+        <v>22</v>
+      </c>
+      <c r="C2039">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:3">
+      <c r="A2040" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2040">
+        <v>23</v>
+      </c>
+      <c r="C2040">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:3">
+      <c r="A2041" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2041">
+        <v>24</v>
+      </c>
+      <c r="C2041">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:3">
+      <c r="A2042" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2042">
+        <v>25</v>
+      </c>
+      <c r="C2042">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:3">
+      <c r="A2043" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2043">
+        <v>26</v>
+      </c>
+      <c r="C2043">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:3">
+      <c r="A2044" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2044">
+        <v>27</v>
+      </c>
+      <c r="C2044">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:3">
+      <c r="A2045" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2045">
+        <v>28</v>
+      </c>
+      <c r="C2045">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:3">
+      <c r="A2046" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2046">
+        <v>29</v>
+      </c>
+      <c r="C2046">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:3">
+      <c r="A2047" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2047">
+        <v>30</v>
+      </c>
+      <c r="C2047">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:3">
+      <c r="A2048" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2048">
+        <v>31</v>
+      </c>
+      <c r="C2048">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:3">
+      <c r="A2049" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2049">
+        <v>32</v>
+      </c>
+      <c r="C2049">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:3">
+      <c r="A2050" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2050">
+        <v>33</v>
+      </c>
+      <c r="C2050">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:3">
+      <c r="A2051" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2051">
+        <v>34</v>
+      </c>
+      <c r="C2051">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:3">
+      <c r="A2052" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2052">
+        <v>35</v>
+      </c>
+      <c r="C2052">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:3">
+      <c r="A2053" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2053">
+        <v>36</v>
+      </c>
+      <c r="C2053">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:3">
+      <c r="A2054" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2054">
+        <v>37</v>
+      </c>
+      <c r="C2054">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:3">
+      <c r="A2055" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2055">
+        <v>38</v>
+      </c>
+      <c r="C2055">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:3">
+      <c r="A2056" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2056">
+        <v>39</v>
+      </c>
+      <c r="C2056">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:3">
+      <c r="A2057" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2057">
+        <v>40</v>
+      </c>
+      <c r="C2057">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:3">
+      <c r="A2058" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2058">
+        <v>41</v>
+      </c>
+      <c r="C2058">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:3">
+      <c r="A2059" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2059">
+        <v>42</v>
+      </c>
+      <c r="C2059">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:3">
+      <c r="A2060" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2060">
+        <v>43</v>
+      </c>
+      <c r="C2060">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:3">
+      <c r="A2061" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2061">
+        <v>44</v>
+      </c>
+      <c r="C2061">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:3">
+      <c r="A2062" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2062">
+        <v>45</v>
+      </c>
+      <c r="C2062">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:3">
+      <c r="A2063" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2063">
+        <v>46</v>
+      </c>
+      <c r="C2063">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:3">
+      <c r="A2064" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2064">
+        <v>47</v>
+      </c>
+      <c r="C2064">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:3">
+      <c r="A2065" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2065">
+        <v>48</v>
+      </c>
+      <c r="C2065">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:3">
+      <c r="A2066" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2066">
+        <v>49</v>
+      </c>
+      <c r="C2066">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:3">
+      <c r="A2067" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2067">
+        <v>50</v>
+      </c>
+      <c r="C2067">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:3">
+      <c r="A2068" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2068">
+        <v>51</v>
+      </c>
+      <c r="C2068">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:3">
+      <c r="A2069" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2069">
+        <v>52</v>
+      </c>
+      <c r="C2069">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:3">
+      <c r="A2070" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2070">
+        <v>53</v>
+      </c>
+      <c r="C2070">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:3">
+      <c r="A2071" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2071">
+        <v>54</v>
+      </c>
+      <c r="C2071">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:3">
+      <c r="A2072" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2072">
+        <v>55</v>
+      </c>
+      <c r="C2072">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:3">
+      <c r="A2073" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2073">
+        <v>56</v>
+      </c>
+      <c r="C2073">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:3">
+      <c r="A2074" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2074">
+        <v>57</v>
+      </c>
+      <c r="C2074">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:3">
+      <c r="A2075" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2075">
+        <v>58</v>
+      </c>
+      <c r="C2075">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:3">
+      <c r="A2076" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2076">
+        <v>59</v>
+      </c>
+      <c r="C2076">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:3">
+      <c r="A2077" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2077">
+        <v>60</v>
+      </c>
+      <c r="C2077">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:3">
+      <c r="A2078" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2078">
+        <v>61</v>
+      </c>
+      <c r="C2078">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:3">
+      <c r="A2079" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2079">
+        <v>62</v>
+      </c>
+      <c r="C2079">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:3">
+      <c r="A2080" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2080">
+        <v>63</v>
+      </c>
+      <c r="C2080">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:3">
+      <c r="A2081" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2081">
+        <v>64</v>
+      </c>
+      <c r="C2081">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:3">
+      <c r="A2082" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2082">
+        <v>65</v>
+      </c>
+      <c r="C2082">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:3">
+      <c r="A2083" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2083">
+        <v>66</v>
+      </c>
+      <c r="C2083">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:3">
+      <c r="A2084" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2084">
+        <v>67</v>
+      </c>
+      <c r="C2084">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:3">
+      <c r="A2085" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2085">
+        <v>68</v>
+      </c>
+      <c r="C2085">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:3">
+      <c r="A2086" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2086">
+        <v>69</v>
+      </c>
+      <c r="C2086">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:3">
+      <c r="A2087" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2087">
+        <v>70</v>
+      </c>
+      <c r="C2087">
+        <v>5870</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:3">
+      <c r="A2088" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2088">
+        <v>71</v>
+      </c>
+      <c r="C2088">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:3">
+      <c r="A2089" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2089">
+        <v>72</v>
+      </c>
+      <c r="C2089">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:3">
+      <c r="A2090" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2090">
+        <v>73</v>
+      </c>
+      <c r="C2090">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:3">
+      <c r="A2091" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2091">
+        <v>74</v>
+      </c>
+      <c r="C2091">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:3">
+      <c r="A2092" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2092">
+        <v>75</v>
+      </c>
+      <c r="C2092">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:3">
+      <c r="A2093" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2093">
+        <v>76</v>
+      </c>
+      <c r="C2093">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:3">
+      <c r="A2094" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2094">
+        <v>77</v>
+      </c>
+      <c r="C2094">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:3">
+      <c r="A2095" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2095">
+        <v>78</v>
+      </c>
+      <c r="C2095">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:3">
+      <c r="A2096" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2096">
+        <v>79</v>
+      </c>
+      <c r="C2096">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:3">
+      <c r="A2097" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2097">
+        <v>80</v>
+      </c>
+      <c r="C2097">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:3">
+      <c r="A2098" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2098">
+        <v>81</v>
+      </c>
+      <c r="C2098">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:3">
+      <c r="A2099" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2099">
+        <v>82</v>
+      </c>
+      <c r="C2099">
+        <v>6710</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:3">
+      <c r="A2100" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2100">
+        <v>83</v>
+      </c>
+      <c r="C2100">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:3">
+      <c r="A2101" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2101">
+        <v>84</v>
+      </c>
+      <c r="C2101">
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:3">
+      <c r="A2102" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2102">
+        <v>85</v>
+      </c>
+      <c r="C2102">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:3">
+      <c r="A2103" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2103">
+        <v>86</v>
+      </c>
+      <c r="C2103">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:3">
+      <c r="A2104" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2104">
+        <v>87</v>
+      </c>
+      <c r="C2104">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:3">
+      <c r="A2105" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2105">
+        <v>88</v>
+      </c>
+      <c r="C2105">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:3">
+      <c r="A2106" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2106">
+        <v>89</v>
+      </c>
+      <c r="C2106">
+        <v>6630</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:3">
+      <c r="A2107" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2107">
+        <v>90</v>
+      </c>
+      <c r="C2107">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:3">
+      <c r="A2108" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2108">
+        <v>91</v>
+      </c>
+      <c r="C2108">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:3">
+      <c r="A2109" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2109">
+        <v>92</v>
+      </c>
+      <c r="C2109">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:3">
+      <c r="A2110" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2110">
+        <v>93</v>
+      </c>
+      <c r="C2110">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:3">
+      <c r="A2111" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2111">
+        <v>94</v>
+      </c>
+      <c r="C2111">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:3">
+      <c r="A2112" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2112">
+        <v>95</v>
+      </c>
+      <c r="C2112">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:3">
+      <c r="A2113" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2113">
+        <v>96</v>
+      </c>
+      <c r="C2113">
+        <v>5570</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2024.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Consumption_2024.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2593"/>
+  <dimension ref="A1:C2784"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19417,7 +19417,7 @@
         <v>1</v>
       </c>
       <c r="C1730">
-        <v>5240</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="1731" spans="1:3">
@@ -19428,7 +19428,7 @@
         <v>2</v>
       </c>
       <c r="C1731">
-        <v>5190</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="1732" spans="1:3">
@@ -19439,7 +19439,7 @@
         <v>3</v>
       </c>
       <c r="C1732">
-        <v>5140</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="1733" spans="1:3">
@@ -19450,7 +19450,7 @@
         <v>4</v>
       </c>
       <c r="C1733">
-        <v>5060</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="1734" spans="1:3">
@@ -19461,7 +19461,7 @@
         <v>5</v>
       </c>
       <c r="C1734">
-        <v>5000</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="1735" spans="1:3">
@@ -19472,7 +19472,7 @@
         <v>6</v>
       </c>
       <c r="C1735">
-        <v>4940</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1736" spans="1:3">
@@ -19483,7 +19483,7 @@
         <v>7</v>
       </c>
       <c r="C1736">
-        <v>4880</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="1737" spans="1:3">
@@ -19494,7 +19494,7 @@
         <v>8</v>
       </c>
       <c r="C1737">
-        <v>4840</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="1738" spans="1:3">
@@ -19505,7 +19505,7 @@
         <v>9</v>
       </c>
       <c r="C1738">
-        <v>4800</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="1739" spans="1:3">
@@ -19516,7 +19516,7 @@
         <v>10</v>
       </c>
       <c r="C1739">
-        <v>4770</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="1740" spans="1:3">
@@ -19527,7 +19527,7 @@
         <v>11</v>
       </c>
       <c r="C1740">
-        <v>4740</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="1741" spans="1:3">
@@ -19538,7 +19538,7 @@
         <v>12</v>
       </c>
       <c r="C1741">
-        <v>4720</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1742" spans="1:3">
@@ -19549,7 +19549,7 @@
         <v>13</v>
       </c>
       <c r="C1742">
-        <v>4700</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1743" spans="1:3">
@@ -19560,7 +19560,7 @@
         <v>14</v>
       </c>
       <c r="C1743">
-        <v>4690</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1744" spans="1:3">
@@ -19571,7 +19571,7 @@
         <v>15</v>
       </c>
       <c r="C1744">
-        <v>4680</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1745" spans="1:3">
@@ -19582,7 +19582,7 @@
         <v>16</v>
       </c>
       <c r="C1745">
-        <v>4670</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1746" spans="1:3">
@@ -19593,7 +19593,7 @@
         <v>17</v>
       </c>
       <c r="C1746">
-        <v>4660</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1747" spans="1:3">
@@ -19604,7 +19604,7 @@
         <v>18</v>
       </c>
       <c r="C1747">
-        <v>4650</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1748" spans="1:3">
@@ -19615,7 +19615,7 @@
         <v>19</v>
       </c>
       <c r="C1748">
-        <v>4650</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1749" spans="1:3">
@@ -19626,7 +19626,7 @@
         <v>20</v>
       </c>
       <c r="C1749">
-        <v>4650</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1750" spans="1:3">
@@ -19637,7 +19637,7 @@
         <v>21</v>
       </c>
       <c r="C1750">
-        <v>4650</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1751" spans="1:3">
@@ -19648,7 +19648,7 @@
         <v>22</v>
       </c>
       <c r="C1751">
-        <v>4650</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1752" spans="1:3">
@@ -19659,7 +19659,7 @@
         <v>23</v>
       </c>
       <c r="C1752">
-        <v>4650</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1753" spans="1:3">
@@ -19670,7 +19670,7 @@
         <v>24</v>
       </c>
       <c r="C1753">
-        <v>4640</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1754" spans="1:3">
@@ -19681,7 +19681,7 @@
         <v>25</v>
       </c>
       <c r="C1754">
-        <v>4630</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1755" spans="1:3">
@@ -19692,7 +19692,7 @@
         <v>26</v>
       </c>
       <c r="C1755">
-        <v>4620</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1756" spans="1:3">
@@ -19703,7 +19703,7 @@
         <v>27</v>
       </c>
       <c r="C1756">
-        <v>4610</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1757" spans="1:3">
@@ -19714,7 +19714,7 @@
         <v>28</v>
       </c>
       <c r="C1757">
-        <v>4600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1758" spans="1:3">
@@ -19725,7 +19725,7 @@
         <v>29</v>
       </c>
       <c r="C1758">
-        <v>4600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1759" spans="1:3">
@@ -19736,7 +19736,7 @@
         <v>30</v>
       </c>
       <c r="C1759">
-        <v>4600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1760" spans="1:3">
@@ -19747,7 +19747,7 @@
         <v>31</v>
       </c>
       <c r="C1760">
-        <v>4600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1761" spans="1:3">
@@ -19758,7 +19758,7 @@
         <v>32</v>
       </c>
       <c r="C1761">
-        <v>4600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1762" spans="1:3">
@@ -19769,7 +19769,7 @@
         <v>33</v>
       </c>
       <c r="C1762">
-        <v>4600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1763" spans="1:3">
@@ -19780,7 +19780,7 @@
         <v>34</v>
       </c>
       <c r="C1763">
-        <v>4600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1764" spans="1:3">
@@ -19791,7 +19791,7 @@
         <v>35</v>
       </c>
       <c r="C1764">
-        <v>4600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1765" spans="1:3">
@@ -19802,7 +19802,7 @@
         <v>36</v>
       </c>
       <c r="C1765">
-        <v>4590</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1766" spans="1:3">
@@ -19813,7 +19813,7 @@
         <v>37</v>
       </c>
       <c r="C1766">
-        <v>4560</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1767" spans="1:3">
@@ -19824,7 +19824,7 @@
         <v>38</v>
       </c>
       <c r="C1767">
-        <v>4530</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1768" spans="1:3">
@@ -19835,7 +19835,7 @@
         <v>39</v>
       </c>
       <c r="C1768">
-        <v>4480</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1769" spans="1:3">
@@ -19846,7 +19846,7 @@
         <v>40</v>
       </c>
       <c r="C1769">
-        <v>4430</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1770" spans="1:3">
@@ -19857,7 +19857,7 @@
         <v>41</v>
       </c>
       <c r="C1770">
-        <v>4380</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1771" spans="1:3">
@@ -19868,7 +19868,7 @@
         <v>42</v>
       </c>
       <c r="C1771">
-        <v>4320</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1772" spans="1:3">
@@ -19879,7 +19879,7 @@
         <v>43</v>
       </c>
       <c r="C1772">
-        <v>4270</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1773" spans="1:3">
@@ -19890,7 +19890,7 @@
         <v>44</v>
       </c>
       <c r="C1773">
-        <v>4230</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1774" spans="1:3">
@@ -19901,7 +19901,7 @@
         <v>45</v>
       </c>
       <c r="C1774">
-        <v>4190</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1775" spans="1:3">
@@ -19912,7 +19912,7 @@
         <v>46</v>
       </c>
       <c r="C1775">
-        <v>4150</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1776" spans="1:3">
@@ -19923,7 +19923,7 @@
         <v>47</v>
       </c>
       <c r="C1776">
-        <v>4120</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1777" spans="1:3">
@@ -19934,7 +19934,7 @@
         <v>48</v>
       </c>
       <c r="C1777">
-        <v>4100</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1778" spans="1:3">
@@ -19945,7 +19945,7 @@
         <v>49</v>
       </c>
       <c r="C1778">
-        <v>4070</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1779" spans="1:3">
@@ -19956,7 +19956,7 @@
         <v>50</v>
       </c>
       <c r="C1779">
-        <v>4050</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1780" spans="1:3">
@@ -19967,7 +19967,7 @@
         <v>51</v>
       </c>
       <c r="C1780">
-        <v>4020</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1781" spans="1:3">
@@ -19978,7 +19978,7 @@
         <v>52</v>
       </c>
       <c r="C1781">
-        <v>4000</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1782" spans="1:3">
@@ -19989,7 +19989,7 @@
         <v>53</v>
       </c>
       <c r="C1782">
-        <v>3970</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1783" spans="1:3">
@@ -20000,7 +20000,7 @@
         <v>54</v>
       </c>
       <c r="C1783">
-        <v>3950</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1784" spans="1:3">
@@ -20011,7 +20011,7 @@
         <v>55</v>
       </c>
       <c r="C1784">
-        <v>3940</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1785" spans="1:3">
@@ -20022,7 +20022,7 @@
         <v>56</v>
       </c>
       <c r="C1785">
-        <v>3940</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1786" spans="1:3">
@@ -20033,7 +20033,7 @@
         <v>57</v>
       </c>
       <c r="C1786">
-        <v>3940</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1787" spans="1:3">
@@ -20044,7 +20044,7 @@
         <v>58</v>
       </c>
       <c r="C1787">
-        <v>3950</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1788" spans="1:3">
@@ -20055,7 +20055,7 @@
         <v>59</v>
       </c>
       <c r="C1788">
-        <v>3970</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1789" spans="1:3">
@@ -20066,7 +20066,7 @@
         <v>60</v>
       </c>
       <c r="C1789">
-        <v>3990</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1790" spans="1:3">
@@ -20077,7 +20077,7 @@
         <v>61</v>
       </c>
       <c r="C1790">
-        <v>4010</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1791" spans="1:3">
@@ -20088,7 +20088,7 @@
         <v>62</v>
       </c>
       <c r="C1791">
-        <v>4030</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1792" spans="1:3">
@@ -20099,7 +20099,7 @@
         <v>63</v>
       </c>
       <c r="C1792">
-        <v>4060</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1793" spans="1:3">
@@ -20110,7 +20110,7 @@
         <v>64</v>
       </c>
       <c r="C1793">
-        <v>4100</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1794" spans="1:3">
@@ -20121,7 +20121,7 @@
         <v>65</v>
       </c>
       <c r="C1794">
-        <v>4150</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1795" spans="1:3">
@@ -20132,7 +20132,7 @@
         <v>66</v>
       </c>
       <c r="C1795">
-        <v>4210</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1796" spans="1:3">
@@ -20143,7 +20143,7 @@
         <v>67</v>
       </c>
       <c r="C1796">
-        <v>4280</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1797" spans="1:3">
@@ -20154,7 +20154,7 @@
         <v>68</v>
       </c>
       <c r="C1797">
-        <v>4370</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1798" spans="1:3">
@@ -20165,7 +20165,7 @@
         <v>69</v>
       </c>
       <c r="C1798">
-        <v>4470</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1799" spans="1:3">
@@ -20176,7 +20176,7 @@
         <v>70</v>
       </c>
       <c r="C1799">
-        <v>4560</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1800" spans="1:3">
@@ -20187,7 +20187,7 @@
         <v>71</v>
       </c>
       <c r="C1800">
-        <v>4650</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1801" spans="1:3">
@@ -20198,7 +20198,7 @@
         <v>72</v>
       </c>
       <c r="C1801">
-        <v>4730</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="1802" spans="1:3">
@@ -20209,7 +20209,7 @@
         <v>73</v>
       </c>
       <c r="C1802">
-        <v>4810</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="1803" spans="1:3">
@@ -20220,7 +20220,7 @@
         <v>74</v>
       </c>
       <c r="C1803">
-        <v>4890</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="1804" spans="1:3">
@@ -20231,7 +20231,7 @@
         <v>75</v>
       </c>
       <c r="C1804">
-        <v>4980</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="1805" spans="1:3">
@@ -20242,7 +20242,7 @@
         <v>76</v>
       </c>
       <c r="C1805">
-        <v>5100</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="1806" spans="1:3">
@@ -20253,7 +20253,7 @@
         <v>77</v>
       </c>
       <c r="C1806">
-        <v>5220</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="1807" spans="1:3">
@@ -20264,7 +20264,7 @@
         <v>78</v>
       </c>
       <c r="C1807">
-        <v>5350</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="1808" spans="1:3">
@@ -20275,7 +20275,7 @@
         <v>79</v>
       </c>
       <c r="C1808">
-        <v>5470</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="1809" spans="1:3">
@@ -20286,7 +20286,7 @@
         <v>80</v>
       </c>
       <c r="C1809">
-        <v>5570</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="1810" spans="1:3">
@@ -20297,7 +20297,7 @@
         <v>81</v>
       </c>
       <c r="C1810">
-        <v>5660</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="1811" spans="1:3">
@@ -20308,7 +20308,7 @@
         <v>82</v>
       </c>
       <c r="C1811">
-        <v>5760</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="1812" spans="1:3">
@@ -20319,7 +20319,7 @@
         <v>83</v>
       </c>
       <c r="C1812">
-        <v>5850</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="1813" spans="1:3">
@@ -20330,7 +20330,7 @@
         <v>84</v>
       </c>
       <c r="C1813">
-        <v>5970</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="1814" spans="1:3">
@@ -20341,7 +20341,7 @@
         <v>85</v>
       </c>
       <c r="C1814">
-        <v>6030</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="1815" spans="1:3">
@@ -20352,7 +20352,7 @@
         <v>86</v>
       </c>
       <c r="C1815">
-        <v>6050</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="1816" spans="1:3">
@@ -20363,7 +20363,7 @@
         <v>87</v>
       </c>
       <c r="C1816">
-        <v>6050</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="1817" spans="1:3">
@@ -20374,7 +20374,7 @@
         <v>88</v>
       </c>
       <c r="C1817">
-        <v>6000</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="1818" spans="1:3">
@@ -20385,7 +20385,7 @@
         <v>89</v>
       </c>
       <c r="C1818">
-        <v>5890</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="1819" spans="1:3">
@@ -20396,7 +20396,7 @@
         <v>90</v>
       </c>
       <c r="C1819">
-        <v>5830</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="1820" spans="1:3">
@@ -20407,7 +20407,7 @@
         <v>91</v>
       </c>
       <c r="C1820">
-        <v>5720</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="1821" spans="1:3">
@@ -20418,7 +20418,7 @@
         <v>92</v>
       </c>
       <c r="C1821">
-        <v>5560</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="1822" spans="1:3">
@@ -20429,7 +20429,7 @@
         <v>93</v>
       </c>
       <c r="C1822">
-        <v>5310</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="1823" spans="1:3">
@@ -20440,7 +20440,7 @@
         <v>94</v>
       </c>
       <c r="C1823">
-        <v>5180</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="1824" spans="1:3">
@@ -20451,7 +20451,7 @@
         <v>95</v>
       </c>
       <c r="C1824">
-        <v>5080</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="1825" spans="1:3">
@@ -20462,7 +20462,7 @@
         <v>96</v>
       </c>
       <c r="C1825">
-        <v>4970</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="1826" spans="1:3">
@@ -20473,7 +20473,7 @@
         <v>1</v>
       </c>
       <c r="C1826">
-        <v>5010</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="1827" spans="1:3">
@@ -20484,7 +20484,7 @@
         <v>2</v>
       </c>
       <c r="C1827">
-        <v>4970</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="1828" spans="1:3">
@@ -20495,7 +20495,7 @@
         <v>3</v>
       </c>
       <c r="C1828">
-        <v>4910</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="1829" spans="1:3">
@@ -20506,7 +20506,7 @@
         <v>4</v>
       </c>
       <c r="C1829">
-        <v>4840</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="1830" spans="1:3">
@@ -20517,7 +20517,7 @@
         <v>5</v>
       </c>
       <c r="C1830">
-        <v>4790</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="1831" spans="1:3">
@@ -20528,7 +20528,7 @@
         <v>6</v>
       </c>
       <c r="C1831">
-        <v>4750</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1832" spans="1:3">
@@ -20539,7 +20539,7 @@
         <v>7</v>
       </c>
       <c r="C1832">
-        <v>4720</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1833" spans="1:3">
@@ -20561,7 +20561,7 @@
         <v>9</v>
       </c>
       <c r="C1834">
-        <v>4660</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1835" spans="1:3">
@@ -20572,7 +20572,7 @@
         <v>10</v>
       </c>
       <c r="C1835">
-        <v>4630</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1836" spans="1:3">
@@ -20583,7 +20583,7 @@
         <v>11</v>
       </c>
       <c r="C1836">
-        <v>4620</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1837" spans="1:3">
@@ -20594,7 +20594,7 @@
         <v>12</v>
       </c>
       <c r="C1837">
-        <v>4610</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1838" spans="1:3">
@@ -20605,7 +20605,7 @@
         <v>13</v>
       </c>
       <c r="C1838">
-        <v>4600</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1839" spans="1:3">
@@ -20616,7 +20616,7 @@
         <v>14</v>
       </c>
       <c r="C1839">
-        <v>4600</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1840" spans="1:3">
@@ -20627,7 +20627,7 @@
         <v>15</v>
       </c>
       <c r="C1840">
-        <v>4600</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1841" spans="1:3">
@@ -20638,7 +20638,7 @@
         <v>16</v>
       </c>
       <c r="C1841">
-        <v>4610</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1842" spans="1:3">
@@ -20649,7 +20649,7 @@
         <v>17</v>
       </c>
       <c r="C1842">
-        <v>4620</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1843" spans="1:3">
@@ -20682,7 +20682,7 @@
         <v>20</v>
       </c>
       <c r="C1845">
-        <v>4670</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1846" spans="1:3">
@@ -20737,7 +20737,7 @@
         <v>25</v>
       </c>
       <c r="C1850">
-        <v>5090</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="1851" spans="1:3">
@@ -20748,7 +20748,7 @@
         <v>26</v>
       </c>
       <c r="C1851">
-        <v>5240</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="1852" spans="1:3">
@@ -20759,7 +20759,7 @@
         <v>27</v>
       </c>
       <c r="C1852">
-        <v>5410</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="1853" spans="1:3">
@@ -20770,7 +20770,7 @@
         <v>28</v>
       </c>
       <c r="C1853">
-        <v>5590</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="1854" spans="1:3">
@@ -20781,7 +20781,7 @@
         <v>29</v>
       </c>
       <c r="C1854">
-        <v>5760</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="1855" spans="1:3">
@@ -20792,7 +20792,7 @@
         <v>30</v>
       </c>
       <c r="C1855">
-        <v>5940</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="1856" spans="1:3">
@@ -20803,7 +20803,7 @@
         <v>31</v>
       </c>
       <c r="C1856">
-        <v>6090</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="1857" spans="1:3">
@@ -20814,7 +20814,7 @@
         <v>32</v>
       </c>
       <c r="C1857">
-        <v>6230</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="1858" spans="1:3">
@@ -20825,7 +20825,7 @@
         <v>33</v>
       </c>
       <c r="C1858">
-        <v>6330</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="1859" spans="1:3">
@@ -20836,7 +20836,7 @@
         <v>34</v>
       </c>
       <c r="C1859">
-        <v>6410</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1860" spans="1:3">
@@ -20847,7 +20847,7 @@
         <v>35</v>
       </c>
       <c r="C1860">
-        <v>6450</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="1861" spans="1:3">
@@ -20858,7 +20858,7 @@
         <v>36</v>
       </c>
       <c r="C1861">
-        <v>6450</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="1862" spans="1:3">
@@ -20869,7 +20869,7 @@
         <v>37</v>
       </c>
       <c r="C1862">
-        <v>6440</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1863" spans="1:3">
@@ -20880,7 +20880,7 @@
         <v>38</v>
       </c>
       <c r="C1863">
-        <v>6400</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="1864" spans="1:3">
@@ -20891,7 +20891,7 @@
         <v>39</v>
       </c>
       <c r="C1864">
-        <v>6340</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="1865" spans="1:3">
@@ -20902,7 +20902,7 @@
         <v>40</v>
       </c>
       <c r="C1865">
-        <v>6270</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="1866" spans="1:3">
@@ -20913,7 +20913,7 @@
         <v>41</v>
       </c>
       <c r="C1866">
-        <v>6190</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="1867" spans="1:3">
@@ -20924,7 +20924,7 @@
         <v>42</v>
       </c>
       <c r="C1867">
-        <v>6120</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="1868" spans="1:3">
@@ -20935,7 +20935,7 @@
         <v>43</v>
       </c>
       <c r="C1868">
-        <v>6050</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="1869" spans="1:3">
@@ -20946,7 +20946,7 @@
         <v>44</v>
       </c>
       <c r="C1869">
-        <v>5980</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1870" spans="1:3">
@@ -20957,7 +20957,7 @@
         <v>45</v>
       </c>
       <c r="C1870">
-        <v>5930</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="1871" spans="1:3">
@@ -20968,7 +20968,7 @@
         <v>46</v>
       </c>
       <c r="C1871">
-        <v>5890</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="1872" spans="1:3">
@@ -20979,7 +20979,7 @@
         <v>47</v>
       </c>
       <c r="C1872">
-        <v>5850</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="1873" spans="1:3">
@@ -20990,7 +20990,7 @@
         <v>48</v>
       </c>
       <c r="C1873">
-        <v>5820</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="1874" spans="1:3">
@@ -21001,7 +21001,7 @@
         <v>49</v>
       </c>
       <c r="C1874">
-        <v>5800</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="1875" spans="1:3">
@@ -21012,7 +21012,7 @@
         <v>50</v>
       </c>
       <c r="C1875">
-        <v>5790</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="1876" spans="1:3">
@@ -21023,7 +21023,7 @@
         <v>51</v>
       </c>
       <c r="C1876">
-        <v>5780</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="1877" spans="1:3">
@@ -21034,7 +21034,7 @@
         <v>52</v>
       </c>
       <c r="C1877">
-        <v>5770</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="1878" spans="1:3">
@@ -21045,7 +21045,7 @@
         <v>53</v>
       </c>
       <c r="C1878">
-        <v>5770</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="1879" spans="1:3">
@@ -21056,7 +21056,7 @@
         <v>54</v>
       </c>
       <c r="C1879">
-        <v>5770</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="1880" spans="1:3">
@@ -21067,7 +21067,7 @@
         <v>55</v>
       </c>
       <c r="C1880">
-        <v>5770</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="1881" spans="1:3">
@@ -21078,7 +21078,7 @@
         <v>56</v>
       </c>
       <c r="C1881">
-        <v>5770</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="1882" spans="1:3">
@@ -21089,7 +21089,7 @@
         <v>57</v>
       </c>
       <c r="C1882">
-        <v>5770</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="1883" spans="1:3">
@@ -21100,7 +21100,7 @@
         <v>58</v>
       </c>
       <c r="C1883">
-        <v>5760</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="1884" spans="1:3">
@@ -21111,7 +21111,7 @@
         <v>59</v>
       </c>
       <c r="C1884">
-        <v>5740</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="1885" spans="1:3">
@@ -21122,7 +21122,7 @@
         <v>60</v>
       </c>
       <c r="C1885">
-        <v>5720</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="1886" spans="1:3">
@@ -21133,7 +21133,7 @@
         <v>61</v>
       </c>
       <c r="C1886">
-        <v>5690</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="1887" spans="1:3">
@@ -21144,7 +21144,7 @@
         <v>62</v>
       </c>
       <c r="C1887">
-        <v>5670</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="1888" spans="1:3">
@@ -21155,7 +21155,7 @@
         <v>63</v>
       </c>
       <c r="C1888">
-        <v>5650</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="1889" spans="1:3">
@@ -21166,7 +21166,7 @@
         <v>64</v>
       </c>
       <c r="C1889">
-        <v>5650</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="1890" spans="1:3">
@@ -21177,7 +21177,7 @@
         <v>65</v>
       </c>
       <c r="C1890">
-        <v>5660</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="1891" spans="1:3">
@@ -21188,7 +21188,7 @@
         <v>66</v>
       </c>
       <c r="C1891">
-        <v>5690</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="1892" spans="1:3">
@@ -21199,7 +21199,7 @@
         <v>67</v>
       </c>
       <c r="C1892">
-        <v>5740</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="1893" spans="1:3">
@@ -21210,7 +21210,7 @@
         <v>68</v>
       </c>
       <c r="C1893">
-        <v>5800</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="1894" spans="1:3">
@@ -21221,7 +21221,7 @@
         <v>69</v>
       </c>
       <c r="C1894">
-        <v>5860</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="1895" spans="1:3">
@@ -21232,7 +21232,7 @@
         <v>70</v>
       </c>
       <c r="C1895">
-        <v>5910</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="1896" spans="1:3">
@@ -21243,7 +21243,7 @@
         <v>71</v>
       </c>
       <c r="C1896">
-        <v>5950</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="1897" spans="1:3">
@@ -21254,7 +21254,7 @@
         <v>72</v>
       </c>
       <c r="C1897">
-        <v>5990</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="1898" spans="1:3">
@@ -21265,7 +21265,7 @@
         <v>73</v>
       </c>
       <c r="C1898">
-        <v>6030</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="1899" spans="1:3">
@@ -21276,7 +21276,7 @@
         <v>74</v>
       </c>
       <c r="C1899">
-        <v>6090</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="1900" spans="1:3">
@@ -21287,7 +21287,7 @@
         <v>75</v>
       </c>
       <c r="C1900">
-        <v>6180</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="1901" spans="1:3">
@@ -21298,7 +21298,7 @@
         <v>76</v>
       </c>
       <c r="C1901">
-        <v>6290</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="1902" spans="1:3">
@@ -21309,7 +21309,7 @@
         <v>77</v>
       </c>
       <c r="C1902">
-        <v>6410</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="1903" spans="1:3">
@@ -21320,7 +21320,7 @@
         <v>78</v>
       </c>
       <c r="C1903">
-        <v>6540</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="1904" spans="1:3">
@@ -21342,7 +21342,7 @@
         <v>80</v>
       </c>
       <c r="C1905">
-        <v>6710</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="1906" spans="1:3">
@@ -21353,7 +21353,7 @@
         <v>81</v>
       </c>
       <c r="C1906">
-        <v>6780</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="1907" spans="1:3">
@@ -21364,7 +21364,7 @@
         <v>82</v>
       </c>
       <c r="C1907">
-        <v>6860</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="1908" spans="1:3">
@@ -21386,7 +21386,7 @@
         <v>84</v>
       </c>
       <c r="C1909">
-        <v>7070</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="1910" spans="1:3">
@@ -21397,7 +21397,7 @@
         <v>85</v>
       </c>
       <c r="C1910">
-        <v>7140</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="1911" spans="1:3">
@@ -21408,7 +21408,7 @@
         <v>86</v>
       </c>
       <c r="C1911">
-        <v>7150</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="1912" spans="1:3">
@@ -21419,7 +21419,7 @@
         <v>87</v>
       </c>
       <c r="C1912">
-        <v>7150</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="1913" spans="1:3">
@@ -21430,7 +21430,7 @@
         <v>88</v>
       </c>
       <c r="C1913">
-        <v>7050</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="1914" spans="1:3">
@@ -21441,7 +21441,7 @@
         <v>89</v>
       </c>
       <c r="C1914">
-        <v>6880</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="1915" spans="1:3">
@@ -21452,7 +21452,7 @@
         <v>90</v>
       </c>
       <c r="C1915">
-        <v>6770</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="1916" spans="1:3">
@@ -21463,7 +21463,7 @@
         <v>91</v>
       </c>
       <c r="C1916">
-        <v>6630</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="1917" spans="1:3">
@@ -21474,7 +21474,7 @@
         <v>92</v>
       </c>
       <c r="C1917">
-        <v>6470</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="1918" spans="1:3">
@@ -21485,7 +21485,7 @@
         <v>93</v>
       </c>
       <c r="C1918">
-        <v>6240</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="1919" spans="1:3">
@@ -21496,7 +21496,7 @@
         <v>94</v>
       </c>
       <c r="C1919">
-        <v>6070</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="1920" spans="1:3">
@@ -21529,7 +21529,7 @@
         <v>1</v>
       </c>
       <c r="C1922">
-        <v>5570</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="1923" spans="1:3">
@@ -21540,7 +21540,7 @@
         <v>2</v>
       </c>
       <c r="C1923">
-        <v>5530</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="1924" spans="1:3">
@@ -21551,7 +21551,7 @@
         <v>3</v>
       </c>
       <c r="C1924">
-        <v>5460</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="1925" spans="1:3">
@@ -21562,7 +21562,7 @@
         <v>4</v>
       </c>
       <c r="C1925">
-        <v>5400</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="1926" spans="1:3">
@@ -21573,7 +21573,7 @@
         <v>5</v>
       </c>
       <c r="C1926">
-        <v>5360</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="1927" spans="1:3">
@@ -21584,7 +21584,7 @@
         <v>6</v>
       </c>
       <c r="C1927">
-        <v>5320</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="1928" spans="1:3">
@@ -21595,7 +21595,7 @@
         <v>7</v>
       </c>
       <c r="C1928">
-        <v>5280</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="1929" spans="1:3">
@@ -21606,7 +21606,7 @@
         <v>8</v>
       </c>
       <c r="C1929">
-        <v>5230</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="1930" spans="1:3">
@@ -21617,7 +21617,7 @@
         <v>9</v>
       </c>
       <c r="C1930">
-        <v>5180</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="1931" spans="1:3">
@@ -21628,7 +21628,7 @@
         <v>10</v>
       </c>
       <c r="C1931">
-        <v>5150</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="1932" spans="1:3">
@@ -21639,7 +21639,7 @@
         <v>11</v>
       </c>
       <c r="C1932">
-        <v>5130</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="1933" spans="1:3">
@@ -21650,7 +21650,7 @@
         <v>12</v>
       </c>
       <c r="C1933">
-        <v>5120</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="1934" spans="1:3">
@@ -21661,7 +21661,7 @@
         <v>13</v>
       </c>
       <c r="C1934">
-        <v>5120</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="1935" spans="1:3">
@@ -21672,7 +21672,7 @@
         <v>14</v>
       </c>
       <c r="C1935">
-        <v>5100</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="1936" spans="1:3">
@@ -21683,7 +21683,7 @@
         <v>15</v>
       </c>
       <c r="C1936">
-        <v>5100</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="1937" spans="1:3">
@@ -21694,7 +21694,7 @@
         <v>16</v>
       </c>
       <c r="C1937">
-        <v>5100</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="1938" spans="1:3">
@@ -21705,7 +21705,7 @@
         <v>17</v>
       </c>
       <c r="C1938">
-        <v>5100</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="1939" spans="1:3">
@@ -21716,7 +21716,7 @@
         <v>18</v>
       </c>
       <c r="C1939">
-        <v>5110</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="1940" spans="1:3">
@@ -21727,7 +21727,7 @@
         <v>19</v>
       </c>
       <c r="C1940">
-        <v>5130</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="1941" spans="1:3">
@@ -21738,7 +21738,7 @@
         <v>20</v>
       </c>
       <c r="C1941">
-        <v>5150</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="1942" spans="1:3">
@@ -21749,7 +21749,7 @@
         <v>21</v>
       </c>
       <c r="C1942">
-        <v>5180</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="1943" spans="1:3">
@@ -21760,7 +21760,7 @@
         <v>22</v>
       </c>
       <c r="C1943">
-        <v>5230</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="1944" spans="1:3">
@@ -21771,7 +21771,7 @@
         <v>23</v>
       </c>
       <c r="C1944">
-        <v>5300</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="1945" spans="1:3">
@@ -21782,7 +21782,7 @@
         <v>24</v>
       </c>
       <c r="C1945">
-        <v>5380</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="1946" spans="1:3">
@@ -21793,7 +21793,7 @@
         <v>25</v>
       </c>
       <c r="C1946">
-        <v>5480</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="1947" spans="1:3">
@@ -21804,7 +21804,7 @@
         <v>26</v>
       </c>
       <c r="C1947">
-        <v>5580</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="1948" spans="1:3">
@@ -21815,7 +21815,7 @@
         <v>27</v>
       </c>
       <c r="C1948">
-        <v>5680</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="1949" spans="1:3">
@@ -21826,7 +21826,7 @@
         <v>28</v>
       </c>
       <c r="C1949">
-        <v>5790</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="1950" spans="1:3">
@@ -21837,7 +21837,7 @@
         <v>29</v>
       </c>
       <c r="C1950">
-        <v>5880</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="1951" spans="1:3">
@@ -21848,7 +21848,7 @@
         <v>30</v>
       </c>
       <c r="C1951">
-        <v>5970</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="1952" spans="1:3">
@@ -21859,7 +21859,7 @@
         <v>31</v>
       </c>
       <c r="C1952">
-        <v>6040</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="1953" spans="1:3">
@@ -21870,7 +21870,7 @@
         <v>32</v>
       </c>
       <c r="C1953">
-        <v>6090</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="1954" spans="1:3">
@@ -21881,7 +21881,7 @@
         <v>33</v>
       </c>
       <c r="C1954">
-        <v>6130</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="1955" spans="1:3">
@@ -21892,7 +21892,7 @@
         <v>34</v>
       </c>
       <c r="C1955">
-        <v>6150</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="1956" spans="1:3">
@@ -21903,7 +21903,7 @@
         <v>35</v>
       </c>
       <c r="C1956">
-        <v>6150</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="1957" spans="1:3">
@@ -21914,7 +21914,7 @@
         <v>36</v>
       </c>
       <c r="C1957">
-        <v>6140</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="1958" spans="1:3">
@@ -21925,7 +21925,7 @@
         <v>37</v>
       </c>
       <c r="C1958">
-        <v>6120</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="1959" spans="1:3">
@@ -21936,7 +21936,7 @@
         <v>38</v>
       </c>
       <c r="C1959">
-        <v>6080</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="1960" spans="1:3">
@@ -21947,7 +21947,7 @@
         <v>39</v>
       </c>
       <c r="C1960">
-        <v>6030</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="1961" spans="1:3">
@@ -21958,7 +21958,7 @@
         <v>40</v>
       </c>
       <c r="C1961">
-        <v>5980</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="1962" spans="1:3">
@@ -21969,7 +21969,7 @@
         <v>41</v>
       </c>
       <c r="C1962">
-        <v>5930</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="1963" spans="1:3">
@@ -21980,7 +21980,7 @@
         <v>42</v>
       </c>
       <c r="C1963">
-        <v>5870</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="1964" spans="1:3">
@@ -21991,7 +21991,7 @@
         <v>43</v>
       </c>
       <c r="C1964">
-        <v>5830</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="1965" spans="1:3">
@@ -22002,7 +22002,7 @@
         <v>44</v>
       </c>
       <c r="C1965">
-        <v>5780</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="1966" spans="1:3">
@@ -22013,7 +22013,7 @@
         <v>45</v>
       </c>
       <c r="C1966">
-        <v>5750</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="1967" spans="1:3">
@@ -22024,7 +22024,7 @@
         <v>46</v>
       </c>
       <c r="C1967">
-        <v>5720</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="1968" spans="1:3">
@@ -22035,7 +22035,7 @@
         <v>47</v>
       </c>
       <c r="C1968">
-        <v>5690</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="1969" spans="1:3">
@@ -22046,7 +22046,7 @@
         <v>48</v>
       </c>
       <c r="C1969">
-        <v>5670</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="1970" spans="1:3">
@@ -22057,7 +22057,7 @@
         <v>49</v>
       </c>
       <c r="C1970">
-        <v>5650</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="1971" spans="1:3">
@@ -22068,7 +22068,7 @@
         <v>50</v>
       </c>
       <c r="C1971">
-        <v>5630</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="1972" spans="1:3">
@@ -22079,7 +22079,7 @@
         <v>51</v>
       </c>
       <c r="C1972">
-        <v>5620</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="1973" spans="1:3">
@@ -22090,7 +22090,7 @@
         <v>52</v>
       </c>
       <c r="C1973">
-        <v>5600</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="1974" spans="1:3">
@@ -22101,7 +22101,7 @@
         <v>53</v>
       </c>
       <c r="C1974">
-        <v>5590</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="1975" spans="1:3">
@@ -22112,7 +22112,7 @@
         <v>54</v>
       </c>
       <c r="C1975">
-        <v>5580</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="1976" spans="1:3">
@@ -22123,7 +22123,7 @@
         <v>55</v>
       </c>
       <c r="C1976">
-        <v>5580</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="1977" spans="1:3">
@@ -22134,7 +22134,7 @@
         <v>56</v>
       </c>
       <c r="C1977">
-        <v>5580</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="1978" spans="1:3">
@@ -22145,7 +22145,7 @@
         <v>57</v>
       </c>
       <c r="C1978">
-        <v>5570</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="1979" spans="1:3">
@@ -22156,7 +22156,7 @@
         <v>58</v>
       </c>
       <c r="C1979">
-        <v>5570</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="1980" spans="1:3">
@@ -22167,7 +22167,7 @@
         <v>59</v>
       </c>
       <c r="C1980">
-        <v>5570</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="1981" spans="1:3">
@@ -22178,7 +22178,7 @@
         <v>60</v>
       </c>
       <c r="C1981">
-        <v>5560</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="1982" spans="1:3">
@@ -22189,7 +22189,7 @@
         <v>61</v>
       </c>
       <c r="C1982">
-        <v>5550</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="1983" spans="1:3">
@@ -22200,7 +22200,7 @@
         <v>62</v>
       </c>
       <c r="C1983">
-        <v>5540</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="1984" spans="1:3">
@@ -22211,7 +22211,7 @@
         <v>63</v>
       </c>
       <c r="C1984">
-        <v>5530</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="1985" spans="1:3">
@@ -22222,7 +22222,7 @@
         <v>64</v>
       </c>
       <c r="C1985">
-        <v>5530</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="1986" spans="1:3">
@@ -22233,7 +22233,7 @@
         <v>65</v>
       </c>
       <c r="C1986">
-        <v>5540</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="1987" spans="1:3">
@@ -22244,7 +22244,7 @@
         <v>66</v>
       </c>
       <c r="C1987">
-        <v>5560</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="1988" spans="1:3">
@@ -22255,7 +22255,7 @@
         <v>67</v>
       </c>
       <c r="C1988">
-        <v>5600</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="1989" spans="1:3">
@@ -22266,7 +22266,7 @@
         <v>68</v>
       </c>
       <c r="C1989">
-        <v>5650</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="1990" spans="1:3">
@@ -22277,7 +22277,7 @@
         <v>69</v>
       </c>
       <c r="C1990">
-        <v>5700</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="1991" spans="1:3">
@@ -22288,7 +22288,7 @@
         <v>70</v>
       </c>
       <c r="C1991">
-        <v>5750</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="1992" spans="1:3">
@@ -22299,7 +22299,7 @@
         <v>71</v>
       </c>
       <c r="C1992">
-        <v>5800</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="1993" spans="1:3">
@@ -22321,7 +22321,7 @@
         <v>73</v>
       </c>
       <c r="C1994">
-        <v>5890</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="1995" spans="1:3">
@@ -22332,7 +22332,7 @@
         <v>74</v>
       </c>
       <c r="C1995">
-        <v>5950</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="1996" spans="1:3">
@@ -22343,7 +22343,7 @@
         <v>75</v>
       </c>
       <c r="C1996">
-        <v>6030</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="1997" spans="1:3">
@@ -22354,7 +22354,7 @@
         <v>76</v>
       </c>
       <c r="C1997">
-        <v>6130</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="1998" spans="1:3">
@@ -22376,7 +22376,7 @@
         <v>78</v>
       </c>
       <c r="C1999">
-        <v>6380</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="2000" spans="1:3">
@@ -22387,7 +22387,7 @@
         <v>79</v>
       </c>
       <c r="C2000">
-        <v>6490</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="2001" spans="1:3">
@@ -22398,7 +22398,7 @@
         <v>80</v>
       </c>
       <c r="C2001">
-        <v>6580</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="2002" spans="1:3">
@@ -22409,7 +22409,7 @@
         <v>81</v>
       </c>
       <c r="C2002">
-        <v>6670</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="2003" spans="1:3">
@@ -22420,7 +22420,7 @@
         <v>82</v>
       </c>
       <c r="C2003">
-        <v>6770</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="2004" spans="1:3">
@@ -22431,7 +22431,7 @@
         <v>83</v>
       </c>
       <c r="C2004">
-        <v>6840</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="2005" spans="1:3">
@@ -22442,7 +22442,7 @@
         <v>84</v>
       </c>
       <c r="C2005">
-        <v>6930</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="2006" spans="1:3">
@@ -22453,7 +22453,7 @@
         <v>85</v>
       </c>
       <c r="C2006">
-        <v>6950</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="2007" spans="1:3">
@@ -22464,7 +22464,7 @@
         <v>86</v>
       </c>
       <c r="C2007">
-        <v>6950</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="2008" spans="1:3">
@@ -22475,7 +22475,7 @@
         <v>87</v>
       </c>
       <c r="C2008">
-        <v>6940</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="2009" spans="1:3">
@@ -22486,7 +22486,7 @@
         <v>88</v>
       </c>
       <c r="C2009">
-        <v>6860</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="2010" spans="1:3">
@@ -22497,7 +22497,7 @@
         <v>89</v>
       </c>
       <c r="C2010">
-        <v>6710</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="2011" spans="1:3">
@@ -22508,7 +22508,7 @@
         <v>90</v>
       </c>
       <c r="C2011">
-        <v>6620</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="2012" spans="1:3">
@@ -22519,7 +22519,7 @@
         <v>91</v>
       </c>
       <c r="C2012">
-        <v>6490</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="2013" spans="1:3">
@@ -22530,7 +22530,7 @@
         <v>92</v>
       </c>
       <c r="C2013">
-        <v>6330</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="2014" spans="1:3">
@@ -22541,7 +22541,7 @@
         <v>93</v>
       </c>
       <c r="C2014">
-        <v>6110</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="2015" spans="1:3">
@@ -22552,7 +22552,7 @@
         <v>94</v>
       </c>
       <c r="C2015">
-        <v>5950</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="2016" spans="1:3">
@@ -22563,7 +22563,7 @@
         <v>95</v>
       </c>
       <c r="C2016">
-        <v>5860</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="2017" spans="1:3">
@@ -22574,7 +22574,7 @@
         <v>96</v>
       </c>
       <c r="C2017">
-        <v>5750</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="2018" spans="1:3">
@@ -22585,7 +22585,7 @@
         <v>1</v>
       </c>
       <c r="C2018">
-        <v>5590</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="2019" spans="1:3">
@@ -22596,7 +22596,7 @@
         <v>2</v>
       </c>
       <c r="C2019">
-        <v>5560</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="2020" spans="1:3">
@@ -22607,7 +22607,7 @@
         <v>3</v>
       </c>
       <c r="C2020">
-        <v>5480</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="2021" spans="1:3">
@@ -22618,7 +22618,7 @@
         <v>4</v>
       </c>
       <c r="C2021">
-        <v>5420</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="2022" spans="1:3">
@@ -22662,7 +22662,7 @@
         <v>8</v>
       </c>
       <c r="C2025">
-        <v>5250</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="2026" spans="1:3">
@@ -22673,7 +22673,7 @@
         <v>9</v>
       </c>
       <c r="C2026">
-        <v>5200</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="2027" spans="1:3">
@@ -22684,7 +22684,7 @@
         <v>10</v>
       </c>
       <c r="C2027">
-        <v>5160</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="2028" spans="1:3">
@@ -22695,7 +22695,7 @@
         <v>11</v>
       </c>
       <c r="C2028">
-        <v>5130</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="2029" spans="1:3">
@@ -22706,7 +22706,7 @@
         <v>12</v>
       </c>
       <c r="C2029">
-        <v>5120</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="2030" spans="1:3">
@@ -22739,7 +22739,7 @@
         <v>15</v>
       </c>
       <c r="C2032">
-        <v>5130</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="2033" spans="1:3">
@@ -22750,7 +22750,7 @@
         <v>16</v>
       </c>
       <c r="C2033">
-        <v>5140</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="2034" spans="1:3">
@@ -22761,7 +22761,7 @@
         <v>17</v>
       </c>
       <c r="C2034">
-        <v>5140</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="2035" spans="1:3">
@@ -22772,7 +22772,7 @@
         <v>18</v>
       </c>
       <c r="C2035">
-        <v>5140</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="2036" spans="1:3">
@@ -22783,7 +22783,7 @@
         <v>19</v>
       </c>
       <c r="C2036">
-        <v>5150</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="2037" spans="1:3">
@@ -22794,7 +22794,7 @@
         <v>20</v>
       </c>
       <c r="C2037">
-        <v>5160</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="2038" spans="1:3">
@@ -22805,7 +22805,7 @@
         <v>21</v>
       </c>
       <c r="C2038">
-        <v>5190</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="2039" spans="1:3">
@@ -22816,7 +22816,7 @@
         <v>22</v>
       </c>
       <c r="C2039">
-        <v>5230</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="2040" spans="1:3">
@@ -22827,7 +22827,7 @@
         <v>23</v>
       </c>
       <c r="C2040">
-        <v>5290</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="2041" spans="1:3">
@@ -22838,7 +22838,7 @@
         <v>24</v>
       </c>
       <c r="C2041">
-        <v>5360</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="2042" spans="1:3">
@@ -22849,7 +22849,7 @@
         <v>25</v>
       </c>
       <c r="C2042">
-        <v>5450</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="2043" spans="1:3">
@@ -22860,7 +22860,7 @@
         <v>26</v>
       </c>
       <c r="C2043">
-        <v>5540</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="2044" spans="1:3">
@@ -22871,7 +22871,7 @@
         <v>27</v>
       </c>
       <c r="C2044">
-        <v>5640</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="2045" spans="1:3">
@@ -22882,7 +22882,7 @@
         <v>28</v>
       </c>
       <c r="C2045">
-        <v>5750</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="2046" spans="1:3">
@@ -22893,7 +22893,7 @@
         <v>29</v>
       </c>
       <c r="C2046">
-        <v>5840</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="2047" spans="1:3">
@@ -22904,7 +22904,7 @@
         <v>30</v>
       </c>
       <c r="C2047">
-        <v>5930</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="2048" spans="1:3">
@@ -22915,7 +22915,7 @@
         <v>31</v>
       </c>
       <c r="C2048">
-        <v>6000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="2049" spans="1:3">
@@ -22926,7 +22926,7 @@
         <v>32</v>
       </c>
       <c r="C2049">
-        <v>6060</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="2050" spans="1:3">
@@ -22937,7 +22937,7 @@
         <v>33</v>
       </c>
       <c r="C2050">
-        <v>6100</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="2051" spans="1:3">
@@ -22948,7 +22948,7 @@
         <v>34</v>
       </c>
       <c r="C2051">
-        <v>6120</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="2052" spans="1:3">
@@ -22959,7 +22959,7 @@
         <v>35</v>
       </c>
       <c r="C2052">
-        <v>6120</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="2053" spans="1:3">
@@ -22970,7 +22970,7 @@
         <v>36</v>
       </c>
       <c r="C2053">
-        <v>6100</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="2054" spans="1:3">
@@ -22981,7 +22981,7 @@
         <v>37</v>
       </c>
       <c r="C2054">
-        <v>6070</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="2055" spans="1:3">
@@ -22992,7 +22992,7 @@
         <v>38</v>
       </c>
       <c r="C2055">
-        <v>6020</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="2056" spans="1:3">
@@ -23003,7 +23003,7 @@
         <v>39</v>
       </c>
       <c r="C2056">
-        <v>5960</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="2057" spans="1:3">
@@ -23014,7 +23014,7 @@
         <v>40</v>
       </c>
       <c r="C2057">
-        <v>5900</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="2058" spans="1:3">
@@ -23025,7 +23025,7 @@
         <v>41</v>
       </c>
       <c r="C2058">
-        <v>5840</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="2059" spans="1:3">
@@ -23036,7 +23036,7 @@
         <v>42</v>
       </c>
       <c r="C2059">
-        <v>5780</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="2060" spans="1:3">
@@ -23047,7 +23047,7 @@
         <v>43</v>
       </c>
       <c r="C2060">
-        <v>5730</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="2061" spans="1:3">
@@ -23058,7 +23058,7 @@
         <v>44</v>
       </c>
       <c r="C2061">
-        <v>5680</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="2062" spans="1:3">
@@ -23069,7 +23069,7 @@
         <v>45</v>
       </c>
       <c r="C2062">
-        <v>5650</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="2063" spans="1:3">
@@ -23080,7 +23080,7 @@
         <v>46</v>
       </c>
       <c r="C2063">
-        <v>5620</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="2064" spans="1:3">
@@ -23091,7 +23091,7 @@
         <v>47</v>
       </c>
       <c r="C2064">
-        <v>5590</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="2065" spans="1:3">
@@ -23102,7 +23102,7 @@
         <v>48</v>
       </c>
       <c r="C2065">
-        <v>5570</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="2066" spans="1:3">
@@ -23113,7 +23113,7 @@
         <v>49</v>
       </c>
       <c r="C2066">
-        <v>5550</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="2067" spans="1:3">
@@ -23124,7 +23124,7 @@
         <v>50</v>
       </c>
       <c r="C2067">
-        <v>5540</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="2068" spans="1:3">
@@ -23135,7 +23135,7 @@
         <v>51</v>
       </c>
       <c r="C2068">
-        <v>5520</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="2069" spans="1:3">
@@ -23146,7 +23146,7 @@
         <v>52</v>
       </c>
       <c r="C2069">
-        <v>5500</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="2070" spans="1:3">
@@ -23157,7 +23157,7 @@
         <v>53</v>
       </c>
       <c r="C2070">
-        <v>5490</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="2071" spans="1:3">
@@ -23168,7 +23168,7 @@
         <v>54</v>
       </c>
       <c r="C2071">
-        <v>5480</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="2072" spans="1:3">
@@ -23179,7 +23179,7 @@
         <v>55</v>
       </c>
       <c r="C2072">
-        <v>5470</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="2073" spans="1:3">
@@ -23190,7 +23190,7 @@
         <v>56</v>
       </c>
       <c r="C2073">
-        <v>5470</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="2074" spans="1:3">
@@ -23201,7 +23201,7 @@
         <v>57</v>
       </c>
       <c r="C2074">
-        <v>5470</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="2075" spans="1:3">
@@ -23212,7 +23212,7 @@
         <v>58</v>
       </c>
       <c r="C2075">
-        <v>5470</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="2076" spans="1:3">
@@ -23223,7 +23223,7 @@
         <v>59</v>
       </c>
       <c r="C2076">
-        <v>5470</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="2077" spans="1:3">
@@ -23234,7 +23234,7 @@
         <v>60</v>
       </c>
       <c r="C2077">
-        <v>5470</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="2078" spans="1:3">
@@ -23245,7 +23245,7 @@
         <v>61</v>
       </c>
       <c r="C2078">
-        <v>5470</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="2079" spans="1:3">
@@ -23256,7 +23256,7 @@
         <v>62</v>
       </c>
       <c r="C2079">
-        <v>5460</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="2080" spans="1:3">
@@ -23267,7 +23267,7 @@
         <v>63</v>
       </c>
       <c r="C2080">
-        <v>5460</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="2081" spans="1:3">
@@ -23278,7 +23278,7 @@
         <v>64</v>
       </c>
       <c r="C2081">
-        <v>5470</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="2082" spans="1:3">
@@ -23289,7 +23289,7 @@
         <v>65</v>
       </c>
       <c r="C2082">
-        <v>5490</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="2083" spans="1:3">
@@ -23300,7 +23300,7 @@
         <v>66</v>
       </c>
       <c r="C2083">
-        <v>5520</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="2084" spans="1:3">
@@ -23311,7 +23311,7 @@
         <v>67</v>
       </c>
       <c r="C2084">
-        <v>5570</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="2085" spans="1:3">
@@ -23322,7 +23322,7 @@
         <v>68</v>
       </c>
       <c r="C2085">
-        <v>5630</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="2086" spans="1:3">
@@ -23333,7 +23333,7 @@
         <v>69</v>
       </c>
       <c r="C2086">
-        <v>5690</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="2087" spans="1:3">
@@ -23344,7 +23344,7 @@
         <v>70</v>
       </c>
       <c r="C2087">
-        <v>5760</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="2088" spans="1:3">
@@ -23355,7 +23355,7 @@
         <v>71</v>
       </c>
       <c r="C2088">
-        <v>5820</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="2089" spans="1:3">
@@ -23366,7 +23366,7 @@
         <v>72</v>
       </c>
       <c r="C2089">
-        <v>5880</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="2090" spans="1:3">
@@ -23377,7 +23377,7 @@
         <v>73</v>
       </c>
       <c r="C2090">
-        <v>5950</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="2091" spans="1:3">
@@ -23388,7 +23388,7 @@
         <v>74</v>
       </c>
       <c r="C2091">
-        <v>6030</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="2092" spans="1:3">
@@ -23399,7 +23399,7 @@
         <v>75</v>
       </c>
       <c r="C2092">
-        <v>6130</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="2093" spans="1:3">
@@ -23410,7 +23410,7 @@
         <v>76</v>
       </c>
       <c r="C2093">
-        <v>6240</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="2094" spans="1:3">
@@ -23421,7 +23421,7 @@
         <v>77</v>
       </c>
       <c r="C2094">
-        <v>6370</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="2095" spans="1:3">
@@ -23432,7 +23432,7 @@
         <v>78</v>
       </c>
       <c r="C2095">
-        <v>6490</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="2096" spans="1:3">
@@ -23443,7 +23443,7 @@
         <v>79</v>
       </c>
       <c r="C2096">
-        <v>6590</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="2097" spans="1:3">
@@ -23454,7 +23454,7 @@
         <v>80</v>
       </c>
       <c r="C2097">
-        <v>6660</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="2098" spans="1:3">
@@ -23465,7 +23465,7 @@
         <v>81</v>
       </c>
       <c r="C2098">
-        <v>6720</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="2099" spans="1:3">
@@ -23476,7 +23476,7 @@
         <v>82</v>
       </c>
       <c r="C2099">
-        <v>6810</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="2100" spans="1:3">
@@ -23487,7 +23487,7 @@
         <v>83</v>
       </c>
       <c r="C2100">
-        <v>6900</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="2101" spans="1:3">
@@ -23498,7 +23498,7 @@
         <v>84</v>
       </c>
       <c r="C2101">
-        <v>7030</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="2102" spans="1:3">
@@ -23509,7 +23509,7 @@
         <v>85</v>
       </c>
       <c r="C2102">
-        <v>7130</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="2103" spans="1:3">
@@ -23520,7 +23520,7 @@
         <v>86</v>
       </c>
       <c r="C2103">
-        <v>7160</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="2104" spans="1:3">
@@ -23531,7 +23531,7 @@
         <v>87</v>
       </c>
       <c r="C2104">
-        <v>7150</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="2105" spans="1:3">
@@ -23542,7 +23542,7 @@
         <v>88</v>
       </c>
       <c r="C2105">
-        <v>7030</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="2106" spans="1:3">
@@ -23553,7 +23553,7 @@
         <v>89</v>
       </c>
       <c r="C2106">
-        <v>6840</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="2107" spans="1:3">
@@ -23564,7 +23564,7 @@
         <v>90</v>
       </c>
       <c r="C2107">
-        <v>6710</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="2108" spans="1:3">
@@ -23597,7 +23597,7 @@
         <v>93</v>
       </c>
       <c r="C2110">
-        <v>6180</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="2111" spans="1:3">
@@ -23608,7 +23608,7 @@
         <v>94</v>
       </c>
       <c r="C2111">
-        <v>6020</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="2112" spans="1:3">
@@ -23619,7 +23619,7 @@
         <v>95</v>
       </c>
       <c r="C2112">
-        <v>5930</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="2113" spans="1:3">
@@ -23630,7 +23630,7 @@
         <v>96</v>
       </c>
       <c r="C2113">
-        <v>5820</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="2114" spans="1:3">
@@ -23641,7 +23641,7 @@
         <v>1</v>
       </c>
       <c r="C2114">
-        <v>5570</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="2115" spans="1:3">
@@ -23663,7 +23663,7 @@
         <v>3</v>
       </c>
       <c r="C2116">
-        <v>5460</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="2117" spans="1:3">
@@ -23674,7 +23674,7 @@
         <v>4</v>
       </c>
       <c r="C2117">
-        <v>5400</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="2118" spans="1:3">
@@ -23685,7 +23685,7 @@
         <v>5</v>
       </c>
       <c r="C2118">
-        <v>5350</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="2119" spans="1:3">
@@ -23696,7 +23696,7 @@
         <v>6</v>
       </c>
       <c r="C2119">
-        <v>5300</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="2120" spans="1:3">
@@ -23707,7 +23707,7 @@
         <v>7</v>
       </c>
       <c r="C2120">
-        <v>5250</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="2121" spans="1:3">
@@ -23718,7 +23718,7 @@
         <v>8</v>
       </c>
       <c r="C2121">
-        <v>5210</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="2122" spans="1:3">
@@ -23729,7 +23729,7 @@
         <v>9</v>
       </c>
       <c r="C2122">
-        <v>5170</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="2123" spans="1:3">
@@ -23740,7 +23740,7 @@
         <v>10</v>
       </c>
       <c r="C2123">
-        <v>5140</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="2124" spans="1:3">
@@ -23751,7 +23751,7 @@
         <v>11</v>
       </c>
       <c r="C2124">
-        <v>5120</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="2125" spans="1:3">
@@ -23762,7 +23762,7 @@
         <v>12</v>
       </c>
       <c r="C2125">
-        <v>5110</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="2126" spans="1:3">
@@ -23773,7 +23773,7 @@
         <v>13</v>
       </c>
       <c r="C2126">
-        <v>5110</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="2127" spans="1:3">
@@ -23784,7 +23784,7 @@
         <v>14</v>
       </c>
       <c r="C2127">
-        <v>5110</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="2128" spans="1:3">
@@ -23795,7 +23795,7 @@
         <v>15</v>
       </c>
       <c r="C2128">
-        <v>5120</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="2129" spans="1:3">
@@ -23806,7 +23806,7 @@
         <v>16</v>
       </c>
       <c r="C2129">
-        <v>5140</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="2130" spans="1:3">
@@ -23817,7 +23817,7 @@
         <v>17</v>
       </c>
       <c r="C2130">
-        <v>5150</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="2131" spans="1:3">
@@ -23828,7 +23828,7 @@
         <v>18</v>
       </c>
       <c r="C2131">
-        <v>5160</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="2132" spans="1:3">
@@ -23839,7 +23839,7 @@
         <v>19</v>
       </c>
       <c r="C2132">
-        <v>5170</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="2133" spans="1:3">
@@ -23850,7 +23850,7 @@
         <v>20</v>
       </c>
       <c r="C2133">
-        <v>5180</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="2134" spans="1:3">
@@ -23861,7 +23861,7 @@
         <v>21</v>
       </c>
       <c r="C2134">
-        <v>5200</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="2135" spans="1:3">
@@ -23872,7 +23872,7 @@
         <v>22</v>
       </c>
       <c r="C2135">
-        <v>5230</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="2136" spans="1:3">
@@ -23883,7 +23883,7 @@
         <v>23</v>
       </c>
       <c r="C2136">
-        <v>5270</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="2137" spans="1:3">
@@ -23894,7 +23894,7 @@
         <v>24</v>
       </c>
       <c r="C2137">
-        <v>5320</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="2138" spans="1:3">
@@ -23905,7 +23905,7 @@
         <v>25</v>
       </c>
       <c r="C2138">
-        <v>5400</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="2139" spans="1:3">
@@ -23916,7 +23916,7 @@
         <v>26</v>
       </c>
       <c r="C2139">
-        <v>5490</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="2140" spans="1:3">
@@ -23927,7 +23927,7 @@
         <v>27</v>
       </c>
       <c r="C2140">
-        <v>5600</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="2141" spans="1:3">
@@ -23938,7 +23938,7 @@
         <v>28</v>
       </c>
       <c r="C2141">
-        <v>5720</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="2142" spans="1:3">
@@ -23949,7 +23949,7 @@
         <v>29</v>
       </c>
       <c r="C2142">
-        <v>5850</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="2143" spans="1:3">
@@ -23960,7 +23960,7 @@
         <v>30</v>
       </c>
       <c r="C2143">
-        <v>5970</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="2144" spans="1:3">
@@ -23971,7 +23971,7 @@
         <v>31</v>
       </c>
       <c r="C2144">
-        <v>6090</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="2145" spans="1:3">
@@ -23982,7 +23982,7 @@
         <v>32</v>
       </c>
       <c r="C2145">
-        <v>6190</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="2146" spans="1:3">
@@ -23993,7 +23993,7 @@
         <v>33</v>
       </c>
       <c r="C2146">
-        <v>6270</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="2147" spans="1:3">
@@ -24004,7 +24004,7 @@
         <v>34</v>
       </c>
       <c r="C2147">
-        <v>6320</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="2148" spans="1:3">
@@ -24015,7 +24015,7 @@
         <v>35</v>
       </c>
       <c r="C2148">
-        <v>6340</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="2149" spans="1:3">
@@ -24026,7 +24026,7 @@
         <v>36</v>
       </c>
       <c r="C2149">
-        <v>6330</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="2150" spans="1:3">
@@ -24037,7 +24037,7 @@
         <v>37</v>
       </c>
       <c r="C2150">
-        <v>6300</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="2151" spans="1:3">
@@ -24048,7 +24048,7 @@
         <v>38</v>
       </c>
       <c r="C2151">
-        <v>6250</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="2152" spans="1:3">
@@ -24059,7 +24059,7 @@
         <v>39</v>
       </c>
       <c r="C2152">
-        <v>6190</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="2153" spans="1:3">
@@ -24070,7 +24070,7 @@
         <v>40</v>
       </c>
       <c r="C2153">
-        <v>6110</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="2154" spans="1:3">
@@ -24081,7 +24081,7 @@
         <v>41</v>
       </c>
       <c r="C2154">
-        <v>6040</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="2155" spans="1:3">
@@ -24092,7 +24092,7 @@
         <v>42</v>
       </c>
       <c r="C2155">
-        <v>5980</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="2156" spans="1:3">
@@ -24103,7 +24103,7 @@
         <v>43</v>
       </c>
       <c r="C2156">
-        <v>5920</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="2157" spans="1:3">
@@ -24114,7 +24114,7 @@
         <v>44</v>
       </c>
       <c r="C2157">
-        <v>5870</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="2158" spans="1:3">
@@ -24125,7 +24125,7 @@
         <v>45</v>
       </c>
       <c r="C2158">
-        <v>5840</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="2159" spans="1:3">
@@ -24136,7 +24136,7 @@
         <v>46</v>
       </c>
       <c r="C2159">
-        <v>5810</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="2160" spans="1:3">
@@ -24147,7 +24147,7 @@
         <v>47</v>
       </c>
       <c r="C2160">
-        <v>5790</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="2161" spans="1:3">
@@ -24158,7 +24158,7 @@
         <v>48</v>
       </c>
       <c r="C2161">
-        <v>5770</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="2162" spans="1:3">
@@ -24169,7 +24169,7 @@
         <v>49</v>
       </c>
       <c r="C2162">
-        <v>5760</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="2163" spans="1:3">
@@ -24180,7 +24180,7 @@
         <v>50</v>
       </c>
       <c r="C2163">
-        <v>5750</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="2164" spans="1:3">
@@ -24191,7 +24191,7 @@
         <v>51</v>
       </c>
       <c r="C2164">
-        <v>5730</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="2165" spans="1:3">
@@ -24202,7 +24202,7 @@
         <v>52</v>
       </c>
       <c r="C2165">
-        <v>5730</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="2166" spans="1:3">
@@ -24213,7 +24213,7 @@
         <v>53</v>
       </c>
       <c r="C2166">
-        <v>5720</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="2167" spans="1:3">
@@ -24224,7 +24224,7 @@
         <v>54</v>
       </c>
       <c r="C2167">
-        <v>5720</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="2168" spans="1:3">
@@ -24235,7 +24235,7 @@
         <v>55</v>
       </c>
       <c r="C2168">
-        <v>5720</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="2169" spans="1:3">
@@ -24246,7 +24246,7 @@
         <v>56</v>
       </c>
       <c r="C2169">
-        <v>5720</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="2170" spans="1:3">
@@ -24257,7 +24257,7 @@
         <v>57</v>
       </c>
       <c r="C2170">
-        <v>5730</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="2171" spans="1:3">
@@ -24268,7 +24268,7 @@
         <v>58</v>
       </c>
       <c r="C2171">
-        <v>5720</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="2172" spans="1:3">
@@ -24279,7 +24279,7 @@
         <v>59</v>
       </c>
       <c r="C2172">
-        <v>5720</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="2173" spans="1:3">
@@ -24290,7 +24290,7 @@
         <v>60</v>
       </c>
       <c r="C2173">
-        <v>5710</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="2174" spans="1:3">
@@ -24301,7 +24301,7 @@
         <v>61</v>
       </c>
       <c r="C2174">
-        <v>5690</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="2175" spans="1:3">
@@ -24312,7 +24312,7 @@
         <v>62</v>
       </c>
       <c r="C2175">
-        <v>5670</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="2176" spans="1:3">
@@ -24323,7 +24323,7 @@
         <v>63</v>
       </c>
       <c r="C2176">
-        <v>5660</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="2177" spans="1:3">
@@ -24334,7 +24334,7 @@
         <v>64</v>
       </c>
       <c r="C2177">
-        <v>5660</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="2178" spans="1:3">
@@ -24345,7 +24345,7 @@
         <v>65</v>
       </c>
       <c r="C2178">
-        <v>5670</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="2179" spans="1:3">
@@ -24356,7 +24356,7 @@
         <v>66</v>
       </c>
       <c r="C2179">
-        <v>5700</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="2180" spans="1:3">
@@ -24367,7 +24367,7 @@
         <v>67</v>
       </c>
       <c r="C2180">
-        <v>5740</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="2181" spans="1:3">
@@ -24378,7 +24378,7 @@
         <v>68</v>
       </c>
       <c r="C2181">
-        <v>5800</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="2182" spans="1:3">
@@ -24389,7 +24389,7 @@
         <v>69</v>
       </c>
       <c r="C2182">
-        <v>5860</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="2183" spans="1:3">
@@ -24400,7 +24400,7 @@
         <v>70</v>
       </c>
       <c r="C2183">
-        <v>5910</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="2184" spans="1:3">
@@ -24411,7 +24411,7 @@
         <v>71</v>
       </c>
       <c r="C2184">
-        <v>5960</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="2185" spans="1:3">
@@ -24422,7 +24422,7 @@
         <v>72</v>
       </c>
       <c r="C2185">
-        <v>6010</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="2186" spans="1:3">
@@ -24433,7 +24433,7 @@
         <v>73</v>
       </c>
       <c r="C2186">
-        <v>6060</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="2187" spans="1:3">
@@ -24444,7 +24444,7 @@
         <v>74</v>
       </c>
       <c r="C2187">
-        <v>6120</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="2188" spans="1:3">
@@ -24455,7 +24455,7 @@
         <v>75</v>
       </c>
       <c r="C2188">
-        <v>6200</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="2189" spans="1:3">
@@ -24466,7 +24466,7 @@
         <v>76</v>
       </c>
       <c r="C2189">
-        <v>6300</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="2190" spans="1:3">
@@ -24477,7 +24477,7 @@
         <v>77</v>
       </c>
       <c r="C2190">
-        <v>6410</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="2191" spans="1:3">
@@ -24488,7 +24488,7 @@
         <v>78</v>
       </c>
       <c r="C2191">
-        <v>6530</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="2192" spans="1:3">
@@ -24499,7 +24499,7 @@
         <v>79</v>
       </c>
       <c r="C2192">
-        <v>6620</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="2193" spans="1:3">
@@ -24510,7 +24510,7 @@
         <v>80</v>
       </c>
       <c r="C2193">
-        <v>6680</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="2194" spans="1:3">
@@ -24521,7 +24521,7 @@
         <v>81</v>
       </c>
       <c r="C2194">
-        <v>6750</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="2195" spans="1:3">
@@ -24532,7 +24532,7 @@
         <v>82</v>
       </c>
       <c r="C2195">
-        <v>6840</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="2196" spans="1:3">
@@ -24543,7 +24543,7 @@
         <v>83</v>
       </c>
       <c r="C2196">
-        <v>6930</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="2197" spans="1:3">
@@ -24554,7 +24554,7 @@
         <v>84</v>
       </c>
       <c r="C2197">
-        <v>7050</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="2198" spans="1:3">
@@ -24565,7 +24565,7 @@
         <v>85</v>
       </c>
       <c r="C2198">
-        <v>7120</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="2199" spans="1:3">
@@ -24576,7 +24576,7 @@
         <v>86</v>
       </c>
       <c r="C2199">
-        <v>7130</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="2200" spans="1:3">
@@ -24587,7 +24587,7 @@
         <v>87</v>
       </c>
       <c r="C2200">
-        <v>7130</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="2201" spans="1:3">
@@ -24598,7 +24598,7 @@
         <v>88</v>
       </c>
       <c r="C2201">
-        <v>7030</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="2202" spans="1:3">
@@ -24609,7 +24609,7 @@
         <v>89</v>
       </c>
       <c r="C2202">
-        <v>6870</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="2203" spans="1:3">
@@ -24620,7 +24620,7 @@
         <v>90</v>
       </c>
       <c r="C2203">
-        <v>6770</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="2204" spans="1:3">
@@ -24631,7 +24631,7 @@
         <v>91</v>
       </c>
       <c r="C2204">
-        <v>6630</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="2205" spans="1:3">
@@ -24642,7 +24642,7 @@
         <v>92</v>
       </c>
       <c r="C2205">
-        <v>6470</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="2206" spans="1:3">
@@ -24653,7 +24653,7 @@
         <v>93</v>
       </c>
       <c r="C2206">
-        <v>6240</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="2207" spans="1:3">
@@ -24664,7 +24664,7 @@
         <v>94</v>
       </c>
       <c r="C2207">
-        <v>6070</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="2208" spans="1:3">
@@ -24675,7 +24675,7 @@
         <v>95</v>
       </c>
       <c r="C2208">
-        <v>5980</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="2209" spans="1:3">
@@ -24686,7 +24686,7 @@
         <v>96</v>
       </c>
       <c r="C2209">
-        <v>5870</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="2210" spans="1:3">
@@ -28911,6 +28911,2107 @@
       </c>
       <c r="C2593">
         <v>5720</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:3">
+      <c r="A2594" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2594">
+        <v>1</v>
+      </c>
+      <c r="C2594">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:3">
+      <c r="A2595" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2595">
+        <v>2</v>
+      </c>
+      <c r="C2595">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:3">
+      <c r="A2596" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2596">
+        <v>3</v>
+      </c>
+      <c r="C2596">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:3">
+      <c r="A2597" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2597">
+        <v>4</v>
+      </c>
+      <c r="C2597">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:3">
+      <c r="A2598" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2598">
+        <v>5</v>
+      </c>
+      <c r="C2598">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:3">
+      <c r="A2599" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2599">
+        <v>6</v>
+      </c>
+      <c r="C2599">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:3">
+      <c r="A2600" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2600">
+        <v>7</v>
+      </c>
+      <c r="C2600">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:3">
+      <c r="A2601" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2601">
+        <v>8</v>
+      </c>
+      <c r="C2601">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:3">
+      <c r="A2602" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2602">
+        <v>9</v>
+      </c>
+      <c r="C2602">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:3">
+      <c r="A2603" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2603">
+        <v>10</v>
+      </c>
+      <c r="C2603">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:3">
+      <c r="A2604" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2604">
+        <v>11</v>
+      </c>
+      <c r="C2604">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:3">
+      <c r="A2605" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2605">
+        <v>12</v>
+      </c>
+      <c r="C2605">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:3">
+      <c r="A2606" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2606">
+        <v>13</v>
+      </c>
+      <c r="C2606">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:3">
+      <c r="A2607" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2607">
+        <v>14</v>
+      </c>
+      <c r="C2607">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:3">
+      <c r="A2608" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2608">
+        <v>15</v>
+      </c>
+      <c r="C2608">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:3">
+      <c r="A2609" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2609">
+        <v>16</v>
+      </c>
+      <c r="C2609">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:3">
+      <c r="A2610" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2610">
+        <v>17</v>
+      </c>
+      <c r="C2610">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:3">
+      <c r="A2611" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2611">
+        <v>18</v>
+      </c>
+      <c r="C2611">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:3">
+      <c r="A2612" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2612">
+        <v>19</v>
+      </c>
+      <c r="C2612">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:3">
+      <c r="A2613" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2613">
+        <v>20</v>
+      </c>
+      <c r="C2613">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:3">
+      <c r="A2614" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2614">
+        <v>21</v>
+      </c>
+      <c r="C2614">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:3">
+      <c r="A2615" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2615">
+        <v>22</v>
+      </c>
+      <c r="C2615">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:3">
+      <c r="A2616" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2616">
+        <v>23</v>
+      </c>
+      <c r="C2616">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:3">
+      <c r="A2617" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2617">
+        <v>24</v>
+      </c>
+      <c r="C2617">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:3">
+      <c r="A2618" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2618">
+        <v>25</v>
+      </c>
+      <c r="C2618">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:3">
+      <c r="A2619" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2619">
+        <v>26</v>
+      </c>
+      <c r="C2619">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:3">
+      <c r="A2620" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2620">
+        <v>27</v>
+      </c>
+      <c r="C2620">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:3">
+      <c r="A2621" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2621">
+        <v>28</v>
+      </c>
+      <c r="C2621">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:3">
+      <c r="A2622" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2622">
+        <v>29</v>
+      </c>
+      <c r="C2622">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:3">
+      <c r="A2623" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2623">
+        <v>30</v>
+      </c>
+      <c r="C2623">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:3">
+      <c r="A2624" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2624">
+        <v>31</v>
+      </c>
+      <c r="C2624">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:3">
+      <c r="A2625" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2625">
+        <v>32</v>
+      </c>
+      <c r="C2625">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:3">
+      <c r="A2626" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2626">
+        <v>33</v>
+      </c>
+      <c r="C2626">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:3">
+      <c r="A2627" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2627">
+        <v>34</v>
+      </c>
+      <c r="C2627">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:3">
+      <c r="A2628" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2628">
+        <v>35</v>
+      </c>
+      <c r="C2628">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:3">
+      <c r="A2629" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2629">
+        <v>36</v>
+      </c>
+      <c r="C2629">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:3">
+      <c r="A2630" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2630">
+        <v>37</v>
+      </c>
+      <c r="C2630">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:3">
+      <c r="A2631" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2631">
+        <v>38</v>
+      </c>
+      <c r="C2631">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:3">
+      <c r="A2632" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2632">
+        <v>39</v>
+      </c>
+      <c r="C2632">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:3">
+      <c r="A2633" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2633">
+        <v>40</v>
+      </c>
+      <c r="C2633">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:3">
+      <c r="A2634" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2634">
+        <v>41</v>
+      </c>
+      <c r="C2634">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:3">
+      <c r="A2635" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2635">
+        <v>42</v>
+      </c>
+      <c r="C2635">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:3">
+      <c r="A2636" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2636">
+        <v>43</v>
+      </c>
+      <c r="C2636">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:3">
+      <c r="A2637" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2637">
+        <v>44</v>
+      </c>
+      <c r="C2637">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:3">
+      <c r="A2638" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2638">
+        <v>45</v>
+      </c>
+      <c r="C2638">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:3">
+      <c r="A2639" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2639">
+        <v>46</v>
+      </c>
+      <c r="C2639">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:3">
+      <c r="A2640" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2640">
+        <v>47</v>
+      </c>
+      <c r="C2640">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:3">
+      <c r="A2641" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2641">
+        <v>48</v>
+      </c>
+      <c r="C2641">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:3">
+      <c r="A2642" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2642">
+        <v>49</v>
+      </c>
+      <c r="C2642">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:3">
+      <c r="A2643" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2643">
+        <v>50</v>
+      </c>
+      <c r="C2643">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:3">
+      <c r="A2644" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2644">
+        <v>51</v>
+      </c>
+      <c r="C2644">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:3">
+      <c r="A2645" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2645">
+        <v>52</v>
+      </c>
+      <c r="C2645">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:3">
+      <c r="A2646" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2646">
+        <v>53</v>
+      </c>
+      <c r="C2646">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:3">
+      <c r="A2647" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2647">
+        <v>54</v>
+      </c>
+      <c r="C2647">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:3">
+      <c r="A2648" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2648">
+        <v>55</v>
+      </c>
+      <c r="C2648">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:3">
+      <c r="A2649" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2649">
+        <v>56</v>
+      </c>
+      <c r="C2649">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:3">
+      <c r="A2650" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2650">
+        <v>57</v>
+      </c>
+      <c r="C2650">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:3">
+      <c r="A2651" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2651">
+        <v>58</v>
+      </c>
+      <c r="C2651">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:3">
+      <c r="A2652" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2652">
+        <v>59</v>
+      </c>
+      <c r="C2652">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:3">
+      <c r="A2653" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2653">
+        <v>60</v>
+      </c>
+      <c r="C2653">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:3">
+      <c r="A2654" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2654">
+        <v>61</v>
+      </c>
+      <c r="C2654">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:3">
+      <c r="A2655" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2655">
+        <v>62</v>
+      </c>
+      <c r="C2655">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:3">
+      <c r="A2656" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2656">
+        <v>63</v>
+      </c>
+      <c r="C2656">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:3">
+      <c r="A2657" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2657">
+        <v>64</v>
+      </c>
+      <c r="C2657">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:3">
+      <c r="A2658" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2658">
+        <v>65</v>
+      </c>
+      <c r="C2658">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:3">
+      <c r="A2659" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2659">
+        <v>66</v>
+      </c>
+      <c r="C2659">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:3">
+      <c r="A2660" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2660">
+        <v>67</v>
+      </c>
+      <c r="C2660">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:3">
+      <c r="A2661" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2661">
+        <v>68</v>
+      </c>
+      <c r="C2661">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:3">
+      <c r="A2662" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2662">
+        <v>69</v>
+      </c>
+      <c r="C2662">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:3">
+      <c r="A2663" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2663">
+        <v>70</v>
+      </c>
+      <c r="C2663">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:3">
+      <c r="A2664" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2664">
+        <v>71</v>
+      </c>
+      <c r="C2664">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:3">
+      <c r="A2665" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2665">
+        <v>72</v>
+      </c>
+      <c r="C2665">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:3">
+      <c r="A2666" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2666">
+        <v>73</v>
+      </c>
+      <c r="C2666">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:3">
+      <c r="A2667" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2667">
+        <v>74</v>
+      </c>
+      <c r="C2667">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:3">
+      <c r="A2668" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2668">
+        <v>75</v>
+      </c>
+      <c r="C2668">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:3">
+      <c r="A2669" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2669">
+        <v>76</v>
+      </c>
+      <c r="C2669">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:3">
+      <c r="A2670" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2670">
+        <v>77</v>
+      </c>
+      <c r="C2670">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:3">
+      <c r="A2671" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2671">
+        <v>78</v>
+      </c>
+      <c r="C2671">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:3">
+      <c r="A2672" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2672">
+        <v>79</v>
+      </c>
+      <c r="C2672">
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:3">
+      <c r="A2673" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2673">
+        <v>80</v>
+      </c>
+      <c r="C2673">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:3">
+      <c r="A2674" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2674">
+        <v>81</v>
+      </c>
+      <c r="C2674">
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:3">
+      <c r="A2675" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2675">
+        <v>82</v>
+      </c>
+      <c r="C2675">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:3">
+      <c r="A2676" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2676">
+        <v>83</v>
+      </c>
+      <c r="C2676">
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:3">
+      <c r="A2677" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2677">
+        <v>84</v>
+      </c>
+      <c r="C2677">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:3">
+      <c r="A2678" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2678">
+        <v>85</v>
+      </c>
+      <c r="C2678">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:3">
+      <c r="A2679" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2679">
+        <v>86</v>
+      </c>
+      <c r="C2679">
+        <v>6910</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:3">
+      <c r="A2680" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2680">
+        <v>87</v>
+      </c>
+      <c r="C2680">
+        <v>6910</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:3">
+      <c r="A2681" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2681">
+        <v>88</v>
+      </c>
+      <c r="C2681">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:3">
+      <c r="A2682" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2682">
+        <v>89</v>
+      </c>
+      <c r="C2682">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:3">
+      <c r="A2683" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2683">
+        <v>90</v>
+      </c>
+      <c r="C2683">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:3">
+      <c r="A2684" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2684">
+        <v>91</v>
+      </c>
+      <c r="C2684">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:3">
+      <c r="A2685" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2685">
+        <v>92</v>
+      </c>
+      <c r="C2685">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:3">
+      <c r="A2686" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2686">
+        <v>93</v>
+      </c>
+      <c r="C2686">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:3">
+      <c r="A2687" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2687">
+        <v>94</v>
+      </c>
+      <c r="C2687">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:3">
+      <c r="A2688" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2688">
+        <v>95</v>
+      </c>
+      <c r="C2688">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:3">
+      <c r="A2689" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2689">
+        <v>96</v>
+      </c>
+      <c r="C2689">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:3">
+      <c r="A2690" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2690">
+        <v>1</v>
+      </c>
+      <c r="C2690">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:3">
+      <c r="A2691" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2691">
+        <v>2</v>
+      </c>
+      <c r="C2691">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:3">
+      <c r="A2692" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2692">
+        <v>3</v>
+      </c>
+      <c r="C2692">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:3">
+      <c r="A2693" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2693">
+        <v>4</v>
+      </c>
+      <c r="C2693">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:3">
+      <c r="A2694" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2694">
+        <v>5</v>
+      </c>
+      <c r="C2694">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:3">
+      <c r="A2695" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2695">
+        <v>6</v>
+      </c>
+      <c r="C2695">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:3">
+      <c r="A2696" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2696">
+        <v>7</v>
+      </c>
+      <c r="C2696">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:3">
+      <c r="A2697" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2697">
+        <v>8</v>
+      </c>
+      <c r="C2697">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:3">
+      <c r="A2698" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2698">
+        <v>9</v>
+      </c>
+      <c r="C2698">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:3">
+      <c r="A2699" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2699">
+        <v>10</v>
+      </c>
+      <c r="C2699">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:3">
+      <c r="A2700" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2700">
+        <v>11</v>
+      </c>
+      <c r="C2700">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:3">
+      <c r="A2701" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2701">
+        <v>12</v>
+      </c>
+      <c r="C2701">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:3">
+      <c r="A2702" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2702">
+        <v>13</v>
+      </c>
+      <c r="C2702">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:3">
+      <c r="A2703" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2703">
+        <v>14</v>
+      </c>
+      <c r="C2703">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:3">
+      <c r="A2704" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2704">
+        <v>15</v>
+      </c>
+      <c r="C2704">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:3">
+      <c r="A2705" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2705">
+        <v>16</v>
+      </c>
+      <c r="C2705">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:3">
+      <c r="A2706" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2706">
+        <v>17</v>
+      </c>
+      <c r="C2706">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:3">
+      <c r="A2707" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2707">
+        <v>18</v>
+      </c>
+      <c r="C2707">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:3">
+      <c r="A2708" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2708">
+        <v>19</v>
+      </c>
+      <c r="C2708">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:3">
+      <c r="A2709" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2709">
+        <v>20</v>
+      </c>
+      <c r="C2709">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:3">
+      <c r="A2710" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2710">
+        <v>21</v>
+      </c>
+      <c r="C2710">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:3">
+      <c r="A2711" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2711">
+        <v>22</v>
+      </c>
+      <c r="C2711">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:3">
+      <c r="A2712" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2712">
+        <v>23</v>
+      </c>
+      <c r="C2712">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:3">
+      <c r="A2713" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2713">
+        <v>24</v>
+      </c>
+      <c r="C2713">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:3">
+      <c r="A2714" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2714">
+        <v>25</v>
+      </c>
+      <c r="C2714">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:3">
+      <c r="A2715" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2715">
+        <v>26</v>
+      </c>
+      <c r="C2715">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:3">
+      <c r="A2716" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2716">
+        <v>27</v>
+      </c>
+      <c r="C2716">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:3">
+      <c r="A2717" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2717">
+        <v>28</v>
+      </c>
+      <c r="C2717">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:3">
+      <c r="A2718" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2718">
+        <v>29</v>
+      </c>
+      <c r="C2718">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:3">
+      <c r="A2719" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2719">
+        <v>30</v>
+      </c>
+      <c r="C2719">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:3">
+      <c r="A2720" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2720">
+        <v>31</v>
+      </c>
+      <c r="C2720">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:3">
+      <c r="A2721" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2721">
+        <v>32</v>
+      </c>
+      <c r="C2721">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:3">
+      <c r="A2722" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2722">
+        <v>33</v>
+      </c>
+      <c r="C2722">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:3">
+      <c r="A2723" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2723">
+        <v>34</v>
+      </c>
+      <c r="C2723">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:3">
+      <c r="A2724" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2724">
+        <v>35</v>
+      </c>
+      <c r="C2724">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:3">
+      <c r="A2725" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2725">
+        <v>36</v>
+      </c>
+      <c r="C2725">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:3">
+      <c r="A2726" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2726">
+        <v>37</v>
+      </c>
+      <c r="C2726">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:3">
+      <c r="A2727" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2727">
+        <v>38</v>
+      </c>
+      <c r="C2727">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:3">
+      <c r="A2728" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2728">
+        <v>39</v>
+      </c>
+      <c r="C2728">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:3">
+      <c r="A2729" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2729">
+        <v>40</v>
+      </c>
+      <c r="C2729">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:3">
+      <c r="A2730" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2730">
+        <v>41</v>
+      </c>
+      <c r="C2730">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:3">
+      <c r="A2731" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2731">
+        <v>42</v>
+      </c>
+      <c r="C2731">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:3">
+      <c r="A2732" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2732">
+        <v>43</v>
+      </c>
+      <c r="C2732">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:3">
+      <c r="A2733" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2733">
+        <v>44</v>
+      </c>
+      <c r="C2733">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:3">
+      <c r="A2734" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2734">
+        <v>45</v>
+      </c>
+      <c r="C2734">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:3">
+      <c r="A2735" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2735">
+        <v>46</v>
+      </c>
+      <c r="C2735">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:3">
+      <c r="A2736" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2736">
+        <v>47</v>
+      </c>
+      <c r="C2736">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:3">
+      <c r="A2737" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2737">
+        <v>48</v>
+      </c>
+      <c r="C2737">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:3">
+      <c r="A2738" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2738">
+        <v>49</v>
+      </c>
+      <c r="C2738">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:3">
+      <c r="A2739" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2739">
+        <v>50</v>
+      </c>
+      <c r="C2739">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:3">
+      <c r="A2740" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2740">
+        <v>51</v>
+      </c>
+      <c r="C2740">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:3">
+      <c r="A2741" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2741">
+        <v>52</v>
+      </c>
+      <c r="C2741">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:3">
+      <c r="A2742" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2742">
+        <v>53</v>
+      </c>
+      <c r="C2742">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:3">
+      <c r="A2743" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2743">
+        <v>54</v>
+      </c>
+      <c r="C2743">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:3">
+      <c r="A2744" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2744">
+        <v>55</v>
+      </c>
+      <c r="C2744">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:3">
+      <c r="A2745" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2745">
+        <v>56</v>
+      </c>
+      <c r="C2745">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:3">
+      <c r="A2746" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2746">
+        <v>57</v>
+      </c>
+      <c r="C2746">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:3">
+      <c r="A2747" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2747">
+        <v>58</v>
+      </c>
+      <c r="C2747">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:3">
+      <c r="A2748" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2748">
+        <v>59</v>
+      </c>
+      <c r="C2748">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:3">
+      <c r="A2749" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2749">
+        <v>60</v>
+      </c>
+      <c r="C2749">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:3">
+      <c r="A2750" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2750">
+        <v>61</v>
+      </c>
+      <c r="C2750">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:3">
+      <c r="A2751" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2751">
+        <v>62</v>
+      </c>
+      <c r="C2751">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:3">
+      <c r="A2752" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2752">
+        <v>63</v>
+      </c>
+      <c r="C2752">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:3">
+      <c r="A2753" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2753">
+        <v>64</v>
+      </c>
+      <c r="C2753">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:3">
+      <c r="A2754" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2754">
+        <v>65</v>
+      </c>
+      <c r="C2754">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:3">
+      <c r="A2755" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2755">
+        <v>66</v>
+      </c>
+      <c r="C2755">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:3">
+      <c r="A2756" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2756">
+        <v>67</v>
+      </c>
+      <c r="C2756">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:3">
+      <c r="A2757" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2757">
+        <v>68</v>
+      </c>
+      <c r="C2757">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:3">
+      <c r="A2758" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2758">
+        <v>69</v>
+      </c>
+      <c r="C2758">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:3">
+      <c r="A2759" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2759">
+        <v>70</v>
+      </c>
+      <c r="C2759">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:3">
+      <c r="A2760" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2760">
+        <v>71</v>
+      </c>
+      <c r="C2760">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:3">
+      <c r="A2761" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2761">
+        <v>72</v>
+      </c>
+      <c r="C2761">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:3">
+      <c r="A2762" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2762">
+        <v>73</v>
+      </c>
+      <c r="C2762">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:3">
+      <c r="A2763" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2763">
+        <v>74</v>
+      </c>
+      <c r="C2763">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:3">
+      <c r="A2764" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2764">
+        <v>75</v>
+      </c>
+      <c r="C2764">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:3">
+      <c r="A2765" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2765">
+        <v>76</v>
+      </c>
+      <c r="C2765">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:3">
+      <c r="A2766" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2766">
+        <v>77</v>
+      </c>
+      <c r="C2766">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:3">
+      <c r="A2767" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2767">
+        <v>78</v>
+      </c>
+      <c r="C2767">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:3">
+      <c r="A2768" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2768">
+        <v>79</v>
+      </c>
+      <c r="C2768">
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:3">
+      <c r="A2769" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2769">
+        <v>80</v>
+      </c>
+      <c r="C2769">
+        <v>6330</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:3">
+      <c r="A2770" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2770">
+        <v>81</v>
+      </c>
+      <c r="C2770">
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:3">
+      <c r="A2771" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2771">
+        <v>82</v>
+      </c>
+      <c r="C2771">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:3">
+      <c r="A2772" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2772">
+        <v>83</v>
+      </c>
+      <c r="C2772">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:3">
+      <c r="A2773" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2773">
+        <v>84</v>
+      </c>
+      <c r="C2773">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:3">
+      <c r="A2774" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2774">
+        <v>85</v>
+      </c>
+      <c r="C2774">
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:3">
+      <c r="A2775" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2775">
+        <v>86</v>
+      </c>
+      <c r="C2775">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:3">
+      <c r="A2776" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2776">
+        <v>87</v>
+      </c>
+      <c r="C2776">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:3">
+      <c r="A2777" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2777">
+        <v>88</v>
+      </c>
+      <c r="C2777">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:3">
+      <c r="A2778" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2778">
+        <v>89</v>
+      </c>
+      <c r="C2778">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:3">
+      <c r="A2779" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2779">
+        <v>90</v>
+      </c>
+      <c r="C2779">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:3">
+      <c r="A2780" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2780">
+        <v>91</v>
+      </c>
+      <c r="C2780">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:3">
+      <c r="A2781" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2781">
+        <v>92</v>
+      </c>
+      <c r="C2781">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:3">
+      <c r="A2782" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2782">
+        <v>93</v>
+      </c>
+      <c r="C2782">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:3">
+      <c r="A2783" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2783">
+        <v>94</v>
+      </c>
+      <c r="C2783">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:3">
+      <c r="A2784" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2784">
+        <v>95</v>
+      </c>
+      <c r="C2784">
+        <v>5580</v>
       </c>
     </row>
   </sheetData>
